--- a/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.27966719040328</v>
+        <v>29.6883214384457</v>
       </c>
       <c r="C2">
-        <v>16.15725955013467</v>
+        <v>16.38502083354872</v>
       </c>
       <c r="D2">
-        <v>7.358935137125629</v>
+        <v>2.640328819181851</v>
       </c>
       <c r="E2">
-        <v>8.474033780617757</v>
+        <v>5.564631435341479</v>
       </c>
       <c r="F2">
-        <v>63.33928119669422</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>45.78957110129364</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.813593989103889</v>
+        <v>5.734372761047767</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.18268183987747</v>
+        <v>7.882028143913026</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>15.02974919791696</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.36177223159526</v>
+        <v>27.98527510156092</v>
       </c>
       <c r="C3">
-        <v>14.93738046441077</v>
+        <v>15.18869335118896</v>
       </c>
       <c r="D3">
-        <v>7.008943871929804</v>
+        <v>2.47594457397364</v>
       </c>
       <c r="E3">
-        <v>8.002564139448454</v>
+        <v>5.5764164276652</v>
       </c>
       <c r="F3">
-        <v>59.36523172576594</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>44.33270736551674</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.351818912484161</v>
+        <v>5.78972760636876</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.27804652519024</v>
+        <v>7.709882531421138</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>15.25898552650087</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.13784925928066</v>
+        <v>26.9159781214408</v>
       </c>
       <c r="C4">
-        <v>14.15934007229205</v>
+        <v>14.42048747583823</v>
       </c>
       <c r="D4">
-        <v>6.792970216083216</v>
+        <v>2.372767334853835</v>
       </c>
       <c r="E4">
-        <v>7.711491727002833</v>
+        <v>5.584531645654033</v>
       </c>
       <c r="F4">
-        <v>56.8730767048707</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>43.4653315878376</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.068834950881017</v>
+        <v>5.824764428788423</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.70047713458644</v>
+        <v>7.607997276525939</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>15.40407628145236</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.62696266272252</v>
+        <v>26.47460035828618</v>
       </c>
       <c r="C5">
-        <v>13.83459916864909</v>
+        <v>14.09881034473043</v>
       </c>
       <c r="D5">
-        <v>6.704636646608875</v>
+        <v>2.330123418664377</v>
       </c>
       <c r="E5">
-        <v>7.592500270624514</v>
+        <v>5.588051883830683</v>
       </c>
       <c r="F5">
-        <v>55.84418052229098</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>43.11870034119567</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.953647964649356</v>
+        <v>5.839314766434054</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.45928898202511</v>
+        <v>7.567439156219759</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>15.46428090750724</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.54138526753681</v>
+        <v>26.40098113939795</v>
       </c>
       <c r="C6">
-        <v>13.78020177066502</v>
+        <v>14.0448707367469</v>
       </c>
       <c r="D6">
-        <v>6.689948383431026</v>
+        <v>2.323005443812187</v>
       </c>
       <c r="E6">
-        <v>7.572720494557094</v>
+        <v>5.588649085019655</v>
       </c>
       <c r="F6">
-        <v>55.67252762805036</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>43.06155575929492</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.934529620722044</v>
+        <v>5.841747546672394</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.4188810369162</v>
+        <v>7.560762645820035</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>15.47434273962066</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.13100894823218</v>
+        <v>26.91004785126899</v>
       </c>
       <c r="C7">
-        <v>14.15499208647513</v>
+        <v>14.41618435487501</v>
       </c>
       <c r="D7">
-        <v>6.791780275698149</v>
+        <v>2.372194686118403</v>
       </c>
       <c r="E7">
-        <v>7.709888433981138</v>
+        <v>5.584578267100864</v>
       </c>
       <c r="F7">
-        <v>56.85925467443869</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>43.4606291097276</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.067280951877532</v>
+        <v>5.824959544956616</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.69724829199322</v>
+        <v>7.607446400494847</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>15.40488386599019</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.62767954364569</v>
+        <v>29.10616247206381</v>
       </c>
       <c r="C8">
-        <v>15.74242467832122</v>
+        <v>15.97940582550551</v>
       </c>
       <c r="D8">
-        <v>7.238442898854385</v>
+        <v>2.584092151128861</v>
       </c>
       <c r="E8">
-        <v>8.311800628413607</v>
+        <v>5.568507346237337</v>
       </c>
       <c r="F8">
-        <v>61.97960114240521</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>45.28160320706429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.654245285682062</v>
+        <v>5.753246980544612</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.87518678799318</v>
+        <v>7.821881504474811</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>15.1078806529198</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.18228825206241</v>
+        <v>33.21786917957894</v>
       </c>
       <c r="C9">
-        <v>18.64523140482817</v>
+        <v>18.78661956207036</v>
       </c>
       <c r="D9">
-        <v>8.109642361986714</v>
+        <v>2.983780986500967</v>
       </c>
       <c r="E9">
-        <v>9.501190800933793</v>
+        <v>5.544388986576225</v>
       </c>
       <c r="F9">
-        <v>71.635529032408</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>49.07023621891354</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.81207504563388</v>
+        <v>5.620502153314617</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.02338697218644</v>
+        <v>8.272750770156021</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>14.56071317291741</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.36584433282906</v>
+        <v>36.118603990705</v>
       </c>
       <c r="C10">
-        <v>20.68390213222144</v>
+        <v>20.70610806584089</v>
       </c>
       <c r="D10">
-        <v>8.755024715968412</v>
+        <v>3.271233196599237</v>
       </c>
       <c r="E10">
-        <v>10.53366066162759</v>
+        <v>5.531891949993335</v>
       </c>
       <c r="F10">
-        <v>78.56344925082985</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>51.99539616521356</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.67421756923734</v>
+        <v>5.527101391739599</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.52626772461938</v>
+        <v>8.623159267091195</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>14.18194570845639</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.79223208521818</v>
+        <v>37.4143016378971</v>
       </c>
       <c r="C11">
-        <v>21.60086867516073</v>
+        <v>21.5522159405205</v>
       </c>
       <c r="D11">
-        <v>9.052622810707026</v>
+        <v>3.401655336743894</v>
       </c>
       <c r="E11">
-        <v>10.99618849039336</v>
+        <v>5.527546535463144</v>
       </c>
       <c r="F11">
-        <v>81.70407659303618</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>53.36094090731815</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.07194487248553</v>
+        <v>5.485333634664871</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.20032662539696</v>
+        <v>8.787057350647258</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>14.01530213717827</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.33069958988754</v>
+        <v>37.93221136809372</v>
       </c>
       <c r="C12">
-        <v>21.94768324226222</v>
+        <v>21.86911289246355</v>
       </c>
       <c r="D12">
-        <v>9.166228866728382</v>
+        <v>3.451097289242624</v>
       </c>
       <c r="E12">
-        <v>11.17078660134709</v>
+        <v>5.526115532004757</v>
       </c>
       <c r="F12">
-        <v>82.89685137688605</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>53.88357275041328</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.22373098679126</v>
+        <v>5.469604322449307</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.45492431061974</v>
+        <v>8.849811916573326</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>13.95308808767571</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.21477809370838</v>
+        <v>37.81992673495889</v>
       </c>
       <c r="C13">
-        <v>21.87298906084431</v>
+        <v>21.80101251290489</v>
       </c>
       <c r="D13">
-        <v>9.141714746743745</v>
+        <v>3.440444829814545</v>
       </c>
       <c r="E13">
-        <v>11.13319941426959</v>
+        <v>5.526413784824584</v>
       </c>
       <c r="F13">
-        <v>82.63821030918552</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>53.77075857004003</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.19098138987632</v>
+        <v>5.472988317156553</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.40010765142514</v>
+        <v>8.836265037123898</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>13.96644593917972</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.83655597377859</v>
+        <v>37.45447289872373</v>
       </c>
       <c r="C14">
-        <v>21.62940258654761</v>
+        <v>21.57835505270014</v>
       </c>
       <c r="D14">
-        <v>9.06194868060259</v>
+        <v>3.405721215161865</v>
       </c>
       <c r="E14">
-        <v>11.01056067579263</v>
+        <v>5.527424364810329</v>
       </c>
       <c r="F14">
-        <v>81.80198697389091</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>53.40382373304978</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.08440620826906</v>
+        <v>5.484037928441682</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.22128081281843</v>
+        <v>8.792206069622308</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>14.01016538887282</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.60471567291507</v>
+        <v>37.24428314322228</v>
       </c>
       <c r="C15">
-        <v>21.48018071653634</v>
+        <v>21.44152698002136</v>
       </c>
       <c r="D15">
-        <v>9.013220138605311</v>
+        <v>3.384462410883032</v>
       </c>
       <c r="E15">
-        <v>10.93538527206152</v>
+        <v>5.528072038448572</v>
       </c>
       <c r="F15">
-        <v>81.29006217020034</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>53.17980399319941</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.01929238633038</v>
+        <v>5.49081696939637</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.11168374696968</v>
+        <v>8.765310107192494</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>14.03706340505029</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.27230443692248</v>
+        <v>36.03347264167511</v>
       </c>
       <c r="C16">
-        <v>20.62385263081976</v>
+        <v>20.65029981383298</v>
       </c>
       <c r="D16">
-        <v>8.735683128078863</v>
+        <v>3.262711306333068</v>
       </c>
       <c r="E16">
-        <v>10.5033277556423</v>
+        <v>5.532204656968664</v>
       </c>
       <c r="F16">
-        <v>78.35821655748435</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>51.90689643255856</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.64836612583993</v>
+        <v>5.52984416245493</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.4820813376688</v>
+        <v>8.6125419443672</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>14.19295617790363</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.45025698389363</v>
+        <v>35.2847656394645</v>
       </c>
       <c r="C17">
-        <v>20.09653980310893</v>
+        <v>20.1582293507768</v>
       </c>
       <c r="D17">
-        <v>8.566659146807176</v>
+        <v>3.188000938973564</v>
       </c>
       <c r="E17">
-        <v>10.23674892190602</v>
+        <v>5.535097170120933</v>
       </c>
       <c r="F17">
-        <v>76.55867823512962</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>51.13525395358428</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.42246427121366</v>
+        <v>5.553959670089468</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.09384506214067</v>
+        <v>8.520000898434489</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>14.29008857212243</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.9752769432455</v>
+        <v>34.85185527763671</v>
       </c>
       <c r="C18">
-        <v>19.79218352122283</v>
+        <v>19.87262820714415</v>
       </c>
       <c r="D18">
-        <v>8.469793391907597</v>
+        <v>3.144990177024003</v>
       </c>
       <c r="E18">
-        <v>10.08271285623175</v>
+        <v>5.536885403551949</v>
       </c>
       <c r="F18">
-        <v>75.52238076249621</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>50.6946679077227</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.29302320125951</v>
+        <v>5.56789920983242</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.86958509898995</v>
+        <v>8.467193385873554</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>14.34648353797137</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.81404685483598</v>
+        <v>34.70488063933103</v>
       </c>
       <c r="C19">
-        <v>19.68892289097994</v>
+        <v>19.7754754448833</v>
       </c>
       <c r="D19">
-        <v>8.437048165570689</v>
+        <v>3.130417883265666</v>
       </c>
       <c r="E19">
-        <v>10.03042471487806</v>
+        <v>5.537511662741359</v>
       </c>
       <c r="F19">
-        <v>75.17121664516594</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>50.54603700816592</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.24927155092411</v>
+        <v>5.572631203677708</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.79347076336474</v>
+        <v>8.449384683780501</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>14.36566643564774</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.53797941747886</v>
+        <v>35.36470010630264</v>
       </c>
       <c r="C20">
-        <v>20.15277585326576</v>
+        <v>20.21087500552316</v>
       </c>
       <c r="D20">
-        <v>8.584613450938978</v>
+        <v>3.195957370609344</v>
       </c>
       <c r="E20">
-        <v>10.26519676523263</v>
+        <v>5.534776223881961</v>
       </c>
       <c r="F20">
-        <v>76.75035281741152</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>51.2170578708867</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.44645866783009</v>
+        <v>5.551385510289272</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.13526776969658</v>
+        <v>8.529808356232635</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>14.27969363860226</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.94768090058722</v>
+        <v>37.5608738080928</v>
       </c>
       <c r="C21">
-        <v>21.70095128659957</v>
+        <v>21.64384667983835</v>
       </c>
       <c r="D21">
-        <v>9.08534996788285</v>
+        <v>3.415918000424507</v>
       </c>
       <c r="E21">
-        <v>11.04659321705565</v>
+        <v>5.52712151355804</v>
       </c>
       <c r="F21">
-        <v>82.04753978245139</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>53.51144632186071</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.11567434448776</v>
+        <v>5.480790164277942</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.27381762499583</v>
+        <v>8.805128100771913</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>13.99729904311756</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.51377397569549</v>
+        <v>39.07279070522864</v>
       </c>
       <c r="C22">
-        <v>22.71103968746806</v>
+        <v>22.5601712879492</v>
       </c>
       <c r="D22">
-        <v>9.418163334257521</v>
+        <v>3.560052023961916</v>
       </c>
       <c r="E22">
-        <v>11.55438322093618</v>
+        <v>5.523382805646195</v>
       </c>
       <c r="F22">
-        <v>85.60194497283476</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>55.04356807792217</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.56017554942649</v>
+        <v>5.435151148897095</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.01459723623702</v>
+        <v>8.989120081223669</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>13.81797998741382</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.67813680484764</v>
+        <v>38.26820388387699</v>
       </c>
       <c r="C23">
-        <v>22.1716617406665</v>
+        <v>22.07281477695981</v>
       </c>
       <c r="D23">
-        <v>9.239887070902643</v>
+        <v>3.483051115093919</v>
       </c>
       <c r="E23">
-        <v>11.28344084889362</v>
+        <v>5.525254051179449</v>
       </c>
       <c r="F23">
-        <v>83.69036134010524</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>54.22264374940465</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.32212276980171</v>
+        <v>5.459469911400658</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.6192423929027</v>
+        <v>8.890530089136897</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>13.91317479710836</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.49832760513003</v>
+        <v>35.32856944699715</v>
       </c>
       <c r="C24">
-        <v>20.12735534142084</v>
+        <v>20.18708235346864</v>
       </c>
       <c r="D24">
-        <v>8.576495373386962</v>
+        <v>3.192360458418909</v>
       </c>
       <c r="E24">
-        <v>10.25233794775052</v>
+        <v>5.534920935001028</v>
       </c>
       <c r="F24">
-        <v>76.66370230469614</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>51.18006488276342</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.43560947951943</v>
+        <v>5.552549052459412</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.11654391071052</v>
+        <v>8.525373175494703</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>14.28439147341467</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.98255174487177</v>
+        <v>32.1269763189131</v>
       </c>
       <c r="C25">
-        <v>17.87930415616031</v>
+        <v>18.05348008315976</v>
       </c>
       <c r="D25">
-        <v>7.873782952462455</v>
+        <v>2.877034708876662</v>
       </c>
       <c r="E25">
-        <v>9.165508100207322</v>
+        <v>5.5500561218127</v>
       </c>
       <c r="F25">
-        <v>69.05912285115498</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>48.02139950111641</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.49758687464721</v>
+        <v>5.655634970223949</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.45741737140496</v>
+        <v>8.14748886793633</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>14.70481937368557</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.6883214384457</v>
+        <v>13.83433399918361</v>
       </c>
       <c r="C2">
-        <v>16.38502083354872</v>
+        <v>5.101054154506326</v>
       </c>
       <c r="D2">
-        <v>2.640328819181851</v>
+        <v>6.343568153985263</v>
       </c>
       <c r="E2">
-        <v>5.564631435341479</v>
+        <v>5.677882800764237</v>
       </c>
       <c r="F2">
-        <v>45.78957110129364</v>
+        <v>70.7703097176616</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.734372761047767</v>
+        <v>7.69816147587097</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.80831705162178</v>
       </c>
       <c r="L2">
-        <v>7.882028143913026</v>
+        <v>5.389236639360565</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.08733663176861</v>
       </c>
       <c r="N2">
-        <v>15.02974919791696</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.98527510156092</v>
+        <v>13.36719436902796</v>
       </c>
       <c r="C3">
-        <v>15.18869335118896</v>
+        <v>4.781102395065731</v>
       </c>
       <c r="D3">
-        <v>2.47594457397364</v>
+        <v>6.064704398302931</v>
       </c>
       <c r="E3">
-        <v>5.5764164276652</v>
+        <v>5.724711977402456</v>
       </c>
       <c r="F3">
-        <v>44.33270736551674</v>
+        <v>68.02519988068335</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.78972760636876</v>
+        <v>7.644068178181864</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.49044434783836</v>
       </c>
       <c r="L3">
-        <v>7.709882531421138</v>
+        <v>5.455784437085661</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.05494620202262</v>
       </c>
       <c r="N3">
-        <v>15.25898552650087</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.9159781214408</v>
+        <v>13.0883343748751</v>
       </c>
       <c r="C4">
-        <v>14.42048747583823</v>
+        <v>4.577015688326651</v>
       </c>
       <c r="D4">
-        <v>2.372767334853835</v>
+        <v>5.888302750122964</v>
       </c>
       <c r="E4">
-        <v>5.584531645654033</v>
+        <v>5.754797845864918</v>
       </c>
       <c r="F4">
-        <v>43.4653315878376</v>
+        <v>66.31007947007846</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.824764428788423</v>
+        <v>7.61151946592671</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.30373490009052</v>
       </c>
       <c r="L4">
-        <v>7.607997276525939</v>
+        <v>5.499542547399636</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.04373028120238</v>
       </c>
       <c r="N4">
-        <v>15.40407628145236</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.47460035828618</v>
+        <v>12.97682085383572</v>
       </c>
       <c r="C5">
-        <v>14.09881034473043</v>
+        <v>4.491892528391518</v>
       </c>
       <c r="D5">
-        <v>2.330123418664377</v>
+        <v>5.81513229933492</v>
       </c>
       <c r="E5">
-        <v>5.588051883830683</v>
+        <v>5.767397468183837</v>
       </c>
       <c r="F5">
-        <v>43.11870034119567</v>
+        <v>65.60419150186002</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.839314766434054</v>
+        <v>7.598411820561752</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.22983154810422</v>
       </c>
       <c r="L5">
-        <v>7.567439156219759</v>
+        <v>5.518091881748071</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.04127009562185</v>
       </c>
       <c r="N5">
-        <v>15.46428090750724</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.40098113939795</v>
+        <v>12.9584360705226</v>
       </c>
       <c r="C6">
-        <v>14.0448707367469</v>
+        <v>4.477638836478084</v>
       </c>
       <c r="D6">
-        <v>2.323005443812187</v>
+        <v>5.802905423352529</v>
       </c>
       <c r="E6">
-        <v>5.588649085019655</v>
+        <v>5.769510246679822</v>
       </c>
       <c r="F6">
-        <v>43.06155575929492</v>
+        <v>65.48657476543632</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.841747546672394</v>
+        <v>7.596244435270445</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.21769329672112</v>
       </c>
       <c r="L6">
-        <v>7.560762645820035</v>
+        <v>5.521215025387692</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.04098699836746</v>
       </c>
       <c r="N6">
-        <v>15.47434273962066</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26.91004785126899</v>
+        <v>13.08682169897751</v>
       </c>
       <c r="C7">
-        <v>14.41618435487501</v>
+        <v>4.575875650352899</v>
       </c>
       <c r="D7">
-        <v>2.372194686118403</v>
+        <v>5.887321123890303</v>
       </c>
       <c r="E7">
-        <v>5.584578267100864</v>
+        <v>5.754966389033523</v>
       </c>
       <c r="F7">
-        <v>43.4606291097276</v>
+        <v>66.30058710175788</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.824959544956616</v>
+        <v>7.611342073039197</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.30272930764492</v>
       </c>
       <c r="L7">
-        <v>7.607446400494847</v>
+        <v>5.499789818475116</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.04368864991995</v>
       </c>
       <c r="N7">
-        <v>15.40488386599019</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.10616247206381</v>
+        <v>13.67168112928207</v>
       </c>
       <c r="C8">
-        <v>15.97940582550551</v>
+        <v>4.992295115423076</v>
       </c>
       <c r="D8">
-        <v>2.584092151128861</v>
+        <v>6.248498029738143</v>
       </c>
       <c r="E8">
-        <v>5.568507346237337</v>
+        <v>5.693755574113178</v>
       </c>
       <c r="F8">
-        <v>45.28160320706429</v>
+        <v>69.83020222717963</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.753246980544612</v>
+        <v>7.679365280919646</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.69698939705394</v>
       </c>
       <c r="L8">
-        <v>7.821881504474811</v>
+        <v>5.411573862647525</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.07432616127318</v>
       </c>
       <c r="N8">
-        <v>15.1078806529198</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.21786917957894</v>
+        <v>14.87706762638733</v>
       </c>
       <c r="C9">
-        <v>18.78661956207036</v>
+        <v>5.75037743194902</v>
       </c>
       <c r="D9">
-        <v>2.983780986500967</v>
+        <v>6.915411622632904</v>
       </c>
       <c r="E9">
-        <v>5.544388986576225</v>
+        <v>5.58409044211395</v>
       </c>
       <c r="F9">
-        <v>49.07023621891354</v>
+        <v>76.50079380505765</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.620502153314617</v>
+        <v>7.818577610087598</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.53512501163649</v>
       </c>
       <c r="L9">
-        <v>8.272750770156021</v>
+        <v>5.262148702589828</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.20639597242978</v>
       </c>
       <c r="N9">
-        <v>14.56071317291741</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.118603990705</v>
+        <v>15.79333482859276</v>
       </c>
       <c r="C10">
-        <v>20.70610806584089</v>
+        <v>6.275172698043341</v>
       </c>
       <c r="D10">
-        <v>3.271233196599237</v>
+        <v>7.380513451124804</v>
       </c>
       <c r="E10">
-        <v>5.531891949993335</v>
+        <v>5.509540339782154</v>
       </c>
       <c r="F10">
-        <v>51.99539616521356</v>
+        <v>81.23512334579418</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.527101391739599</v>
+        <v>7.92525145237227</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.18826306109354</v>
       </c>
       <c r="L10">
-        <v>8.623159267091195</v>
+        <v>5.167670359391647</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.35178675973163</v>
       </c>
       <c r="N10">
-        <v>14.18194570845639</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>37.4143016378971</v>
+        <v>16.21626258742838</v>
       </c>
       <c r="C11">
-        <v>21.5522159405205</v>
+        <v>6.507888819221025</v>
       </c>
       <c r="D11">
-        <v>3.401655336743894</v>
+        <v>7.586961188729428</v>
       </c>
       <c r="E11">
-        <v>5.527546535463144</v>
+        <v>5.476862057354008</v>
       </c>
       <c r="F11">
-        <v>53.36094090731815</v>
+        <v>83.35214471488408</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.485333634664871</v>
+        <v>7.974950440601028</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.49330616237332</v>
       </c>
       <c r="L11">
-        <v>8.787057350647258</v>
+        <v>5.128267781498579</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.429440031179</v>
       </c>
       <c r="N11">
-        <v>14.01530213717827</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.93221136809372</v>
+        <v>16.37728512997574</v>
       </c>
       <c r="C12">
-        <v>21.86911289246355</v>
+        <v>6.595241291922568</v>
       </c>
       <c r="D12">
-        <v>3.451097289242624</v>
+        <v>7.664433977739256</v>
       </c>
       <c r="E12">
-        <v>5.526115532004757</v>
+        <v>5.464658961458235</v>
       </c>
       <c r="F12">
-        <v>53.88357275041328</v>
+        <v>84.14863564652708</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.469604322449307</v>
+        <v>7.99395925643775</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.60996635298031</v>
       </c>
       <c r="L12">
-        <v>8.849811916573326</v>
+        <v>5.113886921853198</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>10.46058936903489</v>
       </c>
       <c r="N12">
-        <v>13.95308808767571</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.81992673495889</v>
+        <v>16.34256718519977</v>
       </c>
       <c r="C13">
-        <v>21.80101251290489</v>
+        <v>6.57646108698309</v>
       </c>
       <c r="D13">
-        <v>3.440444829814545</v>
+        <v>7.647779521359735</v>
       </c>
       <c r="E13">
-        <v>5.526413784824584</v>
+        <v>5.467279593113371</v>
       </c>
       <c r="F13">
-        <v>53.77075857004003</v>
+        <v>83.97732466216797</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.472988317156553</v>
+        <v>7.989856615538036</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.58479010848415</v>
       </c>
       <c r="L13">
-        <v>8.836265037123898</v>
+        <v>5.116959625314784</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>10.45380178396819</v>
       </c>
       <c r="N13">
-        <v>13.96644593917972</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>37.45447289872373</v>
+        <v>16.22949252756185</v>
       </c>
       <c r="C14">
-        <v>21.57835505270014</v>
+        <v>6.515090252651215</v>
       </c>
       <c r="D14">
-        <v>3.405721215161865</v>
+        <v>7.59334881439145</v>
       </c>
       <c r="E14">
-        <v>5.527424364810329</v>
+        <v>5.475854701670335</v>
       </c>
       <c r="F14">
-        <v>53.40382373304978</v>
+        <v>83.41777534465218</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.484037928441682</v>
+        <v>7.976510396115019</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.50288075245071</v>
       </c>
       <c r="L14">
-        <v>8.792206069622308</v>
+        <v>5.127073674353227</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.4319672339552</v>
       </c>
       <c r="N14">
-        <v>14.01016538887282</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.24428314322228</v>
+        <v>16.16034449166501</v>
       </c>
       <c r="C15">
-        <v>21.44152698002136</v>
+        <v>6.477401286280525</v>
       </c>
       <c r="D15">
-        <v>3.384462410883032</v>
+        <v>7.559917847550435</v>
       </c>
       <c r="E15">
-        <v>5.528072038448572</v>
+        <v>5.481129343074781</v>
       </c>
       <c r="F15">
-        <v>53.17980399319941</v>
+        <v>83.0743655377518</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.49081696939637</v>
+        <v>7.968360696969974</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.45285889868462</v>
       </c>
       <c r="L15">
-        <v>8.765310107192494</v>
+        <v>5.133339983900937</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.41882273774218</v>
       </c>
       <c r="N15">
-        <v>14.03706340505029</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.03347264167511</v>
+        <v>15.76581688068626</v>
       </c>
       <c r="C16">
-        <v>20.65029981383298</v>
+        <v>6.259850748926837</v>
       </c>
       <c r="D16">
-        <v>3.262711306333068</v>
+        <v>7.366920987913128</v>
       </c>
       <c r="E16">
-        <v>5.532204656968664</v>
+        <v>5.511700279243009</v>
       </c>
       <c r="F16">
-        <v>51.90689643255856</v>
+        <v>81.09603856685952</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.52984416245493</v>
+        <v>7.922028775800724</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.16848736161394</v>
       </c>
       <c r="L16">
-        <v>8.6125419443672</v>
+        <v>5.170319488511656</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.34695102660221</v>
       </c>
       <c r="N16">
-        <v>14.19295617790363</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.2847656394645</v>
+        <v>15.52533492123925</v>
       </c>
       <c r="C17">
-        <v>20.1582293507768</v>
+        <v>6.124911823071137</v>
       </c>
       <c r="D17">
-        <v>3.188000938973564</v>
+        <v>7.24723026729367</v>
       </c>
       <c r="E17">
-        <v>5.535097170120933</v>
+        <v>5.530766636995617</v>
       </c>
       <c r="F17">
-        <v>51.13525395358428</v>
+        <v>79.8730390300378</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.553959670089468</v>
+        <v>7.893919587713022</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.99606273759864</v>
       </c>
       <c r="L17">
-        <v>8.520000898434489</v>
+        <v>5.193938302045912</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.30587004057114</v>
       </c>
       <c r="N17">
-        <v>14.29008857212243</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>34.85185527763671</v>
+        <v>15.38759008726339</v>
       </c>
       <c r="C18">
-        <v>19.87262820714415</v>
+        <v>6.046725962467772</v>
       </c>
       <c r="D18">
-        <v>3.144990177024003</v>
+        <v>7.177901930562999</v>
       </c>
       <c r="E18">
-        <v>5.536885403551949</v>
+        <v>5.541849730922318</v>
       </c>
       <c r="F18">
-        <v>50.6946679077227</v>
+        <v>79.16613965393367</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.56789920983242</v>
+        <v>7.877860933482104</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.89763307255041</v>
       </c>
       <c r="L18">
-        <v>8.467193385873554</v>
+        <v>5.207858056474243</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.28331957559525</v>
       </c>
       <c r="N18">
-        <v>14.34648353797137</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.70488063933103</v>
+        <v>15.34105150146933</v>
       </c>
       <c r="C19">
-        <v>19.7754754448833</v>
+        <v>6.02015261370408</v>
       </c>
       <c r="D19">
-        <v>3.130417883265666</v>
+        <v>7.154344335197633</v>
       </c>
       <c r="E19">
-        <v>5.537511662741359</v>
+        <v>5.545622486616453</v>
       </c>
       <c r="F19">
-        <v>50.54603700816592</v>
+        <v>78.92620019996735</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.572631203677708</v>
+        <v>7.872441894628163</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.86443449851178</v>
       </c>
       <c r="L19">
-        <v>8.449384683780501</v>
+        <v>5.212627830841869</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.27586697103857</v>
       </c>
       <c r="N19">
-        <v>14.36566643564774</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.36470010630264</v>
+        <v>15.55087540808498</v>
       </c>
       <c r="C20">
-        <v>20.21087500552316</v>
+        <v>6.139334927832351</v>
       </c>
       <c r="D20">
-        <v>3.195957370609344</v>
+        <v>7.260021578296767</v>
       </c>
       <c r="E20">
-        <v>5.534776223881961</v>
+        <v>5.528724962911358</v>
       </c>
       <c r="F20">
-        <v>51.2170578708867</v>
+        <v>80.00358748822914</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.551385510289272</v>
+        <v>7.896900438226933</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.0143406128201</v>
       </c>
       <c r="L20">
-        <v>8.529808356232635</v>
+        <v>5.191389210004335</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.31013096933312</v>
       </c>
       <c r="N20">
-        <v>14.27969363860226</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>37.5608738080928</v>
+        <v>16.26268161980782</v>
       </c>
       <c r="C21">
-        <v>21.64384667983835</v>
+        <v>6.533136500256301</v>
       </c>
       <c r="D21">
-        <v>3.415918000424507</v>
+        <v>7.609355237056715</v>
       </c>
       <c r="E21">
-        <v>5.52712151355804</v>
+        <v>5.473331382081737</v>
       </c>
       <c r="F21">
-        <v>53.51144632186071</v>
+        <v>83.58226777137557</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.480790164277942</v>
+        <v>7.980425203116059</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.52690821039536</v>
       </c>
       <c r="L21">
-        <v>8.805128100771913</v>
+        <v>5.124088051064499</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.4383325156518</v>
       </c>
       <c r="N21">
-        <v>13.99729904311756</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.07279070522864</v>
+        <v>16.73297408821239</v>
       </c>
       <c r="C22">
-        <v>22.5601712879492</v>
+        <v>6.786061508836714</v>
       </c>
       <c r="D22">
-        <v>3.560052023961916</v>
+        <v>7.833581527865177</v>
       </c>
       <c r="E22">
-        <v>5.523382805646195</v>
+        <v>5.438124698814117</v>
       </c>
       <c r="F22">
-        <v>55.04356807792217</v>
+        <v>85.89108490075458</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.435151148897095</v>
+        <v>8.036125855940147</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.91169286180416</v>
       </c>
       <c r="L22">
-        <v>8.989120081223669</v>
+        <v>5.083265568763068</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.53232887934601</v>
       </c>
       <c r="N22">
-        <v>13.81797998741382</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>38.26820388387699</v>
+        <v>16.48149890359888</v>
       </c>
       <c r="C23">
-        <v>22.07281477695981</v>
+        <v>6.651443263639491</v>
       </c>
       <c r="D23">
-        <v>3.483051115093919</v>
+        <v>7.714267719674011</v>
       </c>
       <c r="E23">
-        <v>5.525254051179449</v>
+        <v>5.45682615770076</v>
       </c>
       <c r="F23">
-        <v>54.22264374940465</v>
+        <v>84.66151387666237</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.459469911400658</v>
+        <v>8.006288170155026</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.68561374299923</v>
       </c>
       <c r="L23">
-        <v>8.890530089136897</v>
+        <v>5.104754317955646</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.48119640095402</v>
       </c>
       <c r="N23">
-        <v>13.91317479710836</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.32856944699715</v>
+        <v>15.53932695970046</v>
       </c>
       <c r="C24">
-        <v>20.18708235346864</v>
+        <v>6.132816141793276</v>
       </c>
       <c r="D24">
-        <v>3.192360458418909</v>
+        <v>7.254240237889868</v>
       </c>
       <c r="E24">
-        <v>5.534920935001028</v>
+        <v>5.529647624578369</v>
       </c>
       <c r="F24">
-        <v>51.18006488276342</v>
+        <v>79.94457831147147</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.552549052459412</v>
+        <v>7.895552480457528</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.00607500669031</v>
       </c>
       <c r="L24">
-        <v>8.525373175494703</v>
+        <v>5.192540594329454</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.30820128486641</v>
       </c>
       <c r="N24">
-        <v>14.28439147341467</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.1269763189131</v>
+        <v>14.54530962662856</v>
       </c>
       <c r="C25">
-        <v>18.05348008315976</v>
+        <v>5.551233460110605</v>
       </c>
       <c r="D25">
-        <v>2.877034708876662</v>
+        <v>6.739420535712047</v>
       </c>
       <c r="E25">
-        <v>5.5500561218127</v>
+        <v>5.612677665681791</v>
       </c>
       <c r="F25">
-        <v>48.02139950111641</v>
+        <v>74.72489352266598</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.655634970223949</v>
+        <v>7.780211866645978</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.30170238226522</v>
       </c>
       <c r="L25">
-        <v>8.14748886793633</v>
+        <v>5.299961077551398</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.16250556658283</v>
       </c>
       <c r="N25">
-        <v>14.70481937368557</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83433399918361</v>
+        <v>21.00161372784055</v>
       </c>
       <c r="C2">
-        <v>5.101054154506326</v>
+        <v>2.971355352184129</v>
       </c>
       <c r="D2">
-        <v>6.343568153985263</v>
+        <v>4.486033468703653</v>
       </c>
       <c r="E2">
-        <v>5.677882800764237</v>
+        <v>10.53686874755594</v>
       </c>
       <c r="F2">
-        <v>70.7703097176616</v>
+        <v>71.63293216806524</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.69816147587097</v>
+        <v>11.31345065817434</v>
       </c>
       <c r="K2">
-        <v>10.80831705162178</v>
+        <v>17.29396089744464</v>
       </c>
       <c r="L2">
-        <v>5.389236639360565</v>
+        <v>10.81972464555603</v>
       </c>
       <c r="M2">
-        <v>10.08733663176861</v>
+        <v>18.70543065278988</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.36719436902796</v>
+        <v>21.03016882288832</v>
       </c>
       <c r="C3">
-        <v>4.781102395065731</v>
+        <v>2.819988934432768</v>
       </c>
       <c r="D3">
-        <v>6.064704398302931</v>
+        <v>4.356415891133224</v>
       </c>
       <c r="E3">
-        <v>5.724711977402456</v>
+        <v>10.55991303917255</v>
       </c>
       <c r="F3">
-        <v>68.02519988068335</v>
+        <v>70.82504543664436</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.644068178181864</v>
+        <v>11.30218204383513</v>
       </c>
       <c r="K3">
-        <v>10.49044434783836</v>
+        <v>17.33297963058629</v>
       </c>
       <c r="L3">
-        <v>5.455784437085661</v>
+        <v>10.85970154143504</v>
       </c>
       <c r="M3">
-        <v>10.05494620202262</v>
+        <v>18.76925023135885</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.0883343748751</v>
+        <v>21.05400610868024</v>
       </c>
       <c r="C4">
-        <v>4.577015688326651</v>
+        <v>2.776838938734645</v>
       </c>
       <c r="D4">
-        <v>5.888302750122964</v>
+        <v>4.273843329462036</v>
       </c>
       <c r="E4">
-        <v>5.754797845864918</v>
+        <v>10.57490195254308</v>
       </c>
       <c r="F4">
-        <v>66.31007947007846</v>
+        <v>70.32644243018918</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.61151946592671</v>
+        <v>11.2953799438293</v>
       </c>
       <c r="K4">
-        <v>10.30373490009052</v>
+        <v>17.36201502296626</v>
       </c>
       <c r="L4">
-        <v>5.499542547399636</v>
+        <v>10.88579955826696</v>
       </c>
       <c r="M4">
-        <v>10.04373028120238</v>
+        <v>18.81208635761337</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97682085383572</v>
+        <v>21.06530247405438</v>
       </c>
       <c r="C5">
-        <v>4.491892528391518</v>
+        <v>2.765640278106161</v>
       </c>
       <c r="D5">
-        <v>5.81513229933492</v>
+        <v>4.239464926892093</v>
       </c>
       <c r="E5">
-        <v>5.767397468183837</v>
+        <v>10.58122186789461</v>
       </c>
       <c r="F5">
-        <v>65.60419150186002</v>
+        <v>70.12274315558268</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.598411820561752</v>
+        <v>11.29263745089993</v>
       </c>
       <c r="K5">
-        <v>10.22983154810422</v>
+        <v>17.3751208662343</v>
       </c>
       <c r="L5">
-        <v>5.518091881748071</v>
+        <v>10.89682589449631</v>
       </c>
       <c r="M5">
-        <v>10.04127009562185</v>
+        <v>18.8304601804316</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.9584360705226</v>
+        <v>21.067273707782</v>
       </c>
       <c r="C6">
-        <v>4.477638836478084</v>
+        <v>2.763815866735554</v>
       </c>
       <c r="D6">
-        <v>5.802905423352529</v>
+        <v>4.233713036038391</v>
       </c>
       <c r="E6">
-        <v>5.769510246679822</v>
+        <v>10.58228409795148</v>
       </c>
       <c r="F6">
-        <v>65.48657476543632</v>
+        <v>70.08889171700487</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.596244435270445</v>
+        <v>11.29218383947566</v>
       </c>
       <c r="K6">
-        <v>10.21769329672112</v>
+        <v>17.37737390849612</v>
       </c>
       <c r="L6">
-        <v>5.521215025387692</v>
+        <v>10.8986804625368</v>
       </c>
       <c r="M6">
-        <v>10.04098699836746</v>
+        <v>18.83356656266567</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.08682169897751</v>
+        <v>21.05415205235955</v>
       </c>
       <c r="C7">
-        <v>4.575875650352899</v>
+        <v>2.776685570714607</v>
       </c>
       <c r="D7">
-        <v>5.887321123890303</v>
+        <v>4.273382613565515</v>
       </c>
       <c r="E7">
-        <v>5.754966389033523</v>
+        <v>10.57498632660982</v>
       </c>
       <c r="F7">
-        <v>66.30058710175788</v>
+        <v>70.32369718454717</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.611342073039197</v>
+        <v>11.29534283845374</v>
       </c>
       <c r="K7">
-        <v>10.30272930764492</v>
+        <v>17.3621866203903</v>
       </c>
       <c r="L7">
-        <v>5.499789818475116</v>
+        <v>10.88594667821422</v>
       </c>
       <c r="M7">
-        <v>10.04368864991995</v>
+        <v>18.81233043782434</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.67168112928207</v>
+        <v>21.0101496012547</v>
       </c>
       <c r="C8">
-        <v>4.992295115423076</v>
+        <v>2.920193009801353</v>
       </c>
       <c r="D8">
-        <v>6.248498029738143</v>
+        <v>4.441973625300726</v>
       </c>
       <c r="E8">
-        <v>5.693755574113178</v>
+        <v>10.54464056480838</v>
       </c>
       <c r="F8">
-        <v>69.83020222717963</v>
+        <v>71.35498077092858</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.679365280919646</v>
+        <v>11.30954099955497</v>
       </c>
       <c r="K8">
-        <v>10.69698939705394</v>
+        <v>17.30635890308263</v>
       </c>
       <c r="L8">
-        <v>5.411573862647525</v>
+        <v>10.83318709888852</v>
       </c>
       <c r="M8">
-        <v>10.07432616127318</v>
+        <v>18.72667781879594</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.87706762638733</v>
+        <v>20.97397554205978</v>
       </c>
       <c r="C9">
-        <v>5.75037743194902</v>
+        <v>3.27019218309845</v>
       </c>
       <c r="D9">
-        <v>6.915411622632904</v>
+        <v>4.748030900005522</v>
       </c>
       <c r="E9">
-        <v>5.58409044211395</v>
+        <v>10.49176393706377</v>
       </c>
       <c r="F9">
-        <v>76.50079380505765</v>
+        <v>73.35140493925365</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.818577610087598</v>
+        <v>11.33831069465592</v>
       </c>
       <c r="K9">
-        <v>11.53512501163649</v>
+        <v>17.2372936729259</v>
       </c>
       <c r="L9">
-        <v>5.262148702589828</v>
+        <v>10.74199967621628</v>
       </c>
       <c r="M9">
-        <v>10.20639597242978</v>
+        <v>18.58768980651897</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.79333482859276</v>
+        <v>20.97802747226157</v>
       </c>
       <c r="C10">
-        <v>6.275172698043341</v>
+        <v>3.502869419751057</v>
       </c>
       <c r="D10">
-        <v>7.380513451124804</v>
+        <v>4.956923533248705</v>
       </c>
       <c r="E10">
-        <v>5.509540339782154</v>
+        <v>10.45691557526518</v>
       </c>
       <c r="F10">
-        <v>81.23512334579418</v>
+        <v>74.79490540097549</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.92525145237227</v>
+        <v>11.36001433475531</v>
       </c>
       <c r="K10">
-        <v>12.18826306109354</v>
+        <v>17.21132990371408</v>
       </c>
       <c r="L10">
-        <v>5.167670359391647</v>
+        <v>10.68243069661502</v>
       </c>
       <c r="M10">
-        <v>10.35178675973163</v>
+        <v>18.50325401577514</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.21626258742838</v>
+        <v>20.98652062791047</v>
       </c>
       <c r="C11">
-        <v>6.507888819221025</v>
+        <v>3.60336083748751</v>
       </c>
       <c r="D11">
-        <v>7.586961188729428</v>
+        <v>5.048310776973781</v>
       </c>
       <c r="E11">
-        <v>5.476862057354008</v>
+        <v>10.44192171643683</v>
       </c>
       <c r="F11">
-        <v>83.35214471488408</v>
+        <v>75.44497729968231</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.974950440601028</v>
+        <v>11.37001109650154</v>
       </c>
       <c r="K11">
-        <v>12.49330616237332</v>
+        <v>17.20491903955034</v>
       </c>
       <c r="L11">
-        <v>5.128267781498579</v>
+        <v>10.65693205546888</v>
       </c>
       <c r="M11">
-        <v>10.429440031179</v>
+        <v>18.46868341311757</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.37728512997574</v>
+        <v>20.99069138652743</v>
       </c>
       <c r="C12">
-        <v>6.595241291922568</v>
+        <v>3.640642027955948</v>
       </c>
       <c r="D12">
-        <v>7.664433977739256</v>
+        <v>5.082380787547298</v>
       </c>
       <c r="E12">
-        <v>5.464658961458235</v>
+        <v>10.43636673720712</v>
       </c>
       <c r="F12">
-        <v>84.14863564652708</v>
+        <v>75.6900669662371</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.99395925643775</v>
+        <v>11.37381433758496</v>
       </c>
       <c r="K12">
-        <v>12.60996635298031</v>
+        <v>17.20326872315728</v>
       </c>
       <c r="L12">
-        <v>5.113886921853198</v>
+        <v>10.64750551947999</v>
       </c>
       <c r="M12">
-        <v>10.46058936903489</v>
+        <v>18.45614477409003</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.34256718519977</v>
+        <v>20.98975071984342</v>
       </c>
       <c r="C13">
-        <v>6.57646108698309</v>
+        <v>3.63264725557303</v>
       </c>
       <c r="D13">
-        <v>7.647779521359735</v>
+        <v>5.0750672477273</v>
       </c>
       <c r="E13">
-        <v>5.467279593113371</v>
+        <v>10.43755764669207</v>
       </c>
       <c r="F13">
-        <v>83.97732466216797</v>
+        <v>75.63733255273111</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.989856615538036</v>
+        <v>11.37299445674557</v>
       </c>
       <c r="K13">
-        <v>12.58479010848415</v>
+        <v>17.20358956905592</v>
       </c>
       <c r="L13">
-        <v>5.116959625314784</v>
+        <v>10.64952550904312</v>
       </c>
       <c r="M13">
-        <v>10.45380178396819</v>
+        <v>18.45882061645348</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.22949252756185</v>
+        <v>20.98684464021928</v>
       </c>
       <c r="C14">
-        <v>6.515090252651215</v>
+        <v>3.60644348178396</v>
       </c>
       <c r="D14">
-        <v>7.59334881439145</v>
+        <v>5.051124556063568</v>
       </c>
       <c r="E14">
-        <v>5.475854701670335</v>
+        <v>10.44146224605163</v>
       </c>
       <c r="F14">
-        <v>83.41777534465218</v>
+        <v>75.4651633322563</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.976510396115019</v>
+        <v>11.37032363761738</v>
       </c>
       <c r="K14">
-        <v>12.50288075245071</v>
+        <v>17.204767685371</v>
       </c>
       <c r="L14">
-        <v>5.127073674353227</v>
+        <v>10.65615193862633</v>
       </c>
       <c r="M14">
-        <v>10.4319672339552</v>
+        <v>18.46764077691112</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16034449166501</v>
+        <v>20.98518883264373</v>
       </c>
       <c r="C15">
-        <v>6.477401286280525</v>
+        <v>3.590292219692845</v>
       </c>
       <c r="D15">
-        <v>7.559917847550435</v>
+        <v>5.036388754943149</v>
       </c>
       <c r="E15">
-        <v>5.481129343074781</v>
+        <v>10.44386990855179</v>
       </c>
       <c r="F15">
-        <v>83.0743655377518</v>
+        <v>75.35956040581006</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.968360696969974</v>
+        <v>11.3686899836928</v>
       </c>
       <c r="K15">
-        <v>12.45285889868462</v>
+        <v>17.20559056246333</v>
       </c>
       <c r="L15">
-        <v>5.133339983900937</v>
+        <v>10.66024064997909</v>
       </c>
       <c r="M15">
-        <v>10.41882273774218</v>
+        <v>18.47311534153991</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.76581688068626</v>
+        <v>20.97760611640891</v>
       </c>
       <c r="C16">
-        <v>6.259850748926837</v>
+        <v>3.496194059895034</v>
       </c>
       <c r="D16">
-        <v>7.366920987913128</v>
+        <v>4.95087678327253</v>
       </c>
       <c r="E16">
-        <v>5.511700279243009</v>
+        <v>10.45791268722469</v>
       </c>
       <c r="F16">
-        <v>81.09603856685952</v>
+        <v>74.75227786946884</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.922028775800724</v>
+        <v>11.35936350316809</v>
       </c>
       <c r="K16">
-        <v>12.16848736161394</v>
+        <v>17.21185761499082</v>
       </c>
       <c r="L16">
-        <v>5.170319488511656</v>
+        <v>10.6841292141987</v>
       </c>
       <c r="M16">
-        <v>10.34695102660221</v>
+        <v>18.50559058117039</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52533492123925</v>
+        <v>20.97465667352009</v>
       </c>
       <c r="C17">
-        <v>6.124911823071137</v>
+        <v>3.437094115652996</v>
       </c>
       <c r="D17">
-        <v>7.24723026729367</v>
+        <v>4.897476125670179</v>
       </c>
       <c r="E17">
-        <v>5.530766636995617</v>
+        <v>10.46674699587579</v>
       </c>
       <c r="F17">
-        <v>79.8730390300378</v>
+        <v>74.37794887930625</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.893919587713022</v>
+        <v>11.35367361675759</v>
       </c>
       <c r="K17">
-        <v>11.99606273759864</v>
+        <v>17.21708610615924</v>
       </c>
       <c r="L17">
-        <v>5.193938302045912</v>
+        <v>10.69919321303744</v>
       </c>
       <c r="M17">
-        <v>10.30587004057114</v>
+        <v>18.52649678337206</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38759008726339</v>
+        <v>20.97358631086865</v>
       </c>
       <c r="C18">
-        <v>6.046725962467772</v>
+        <v>3.402597471053245</v>
       </c>
       <c r="D18">
-        <v>7.177901930562999</v>
+        <v>4.866419634195828</v>
       </c>
       <c r="E18">
-        <v>5.541849730922318</v>
+        <v>10.47190913161473</v>
       </c>
       <c r="F18">
-        <v>79.16613965393367</v>
+        <v>74.16203277682611</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.877860933482104</v>
+        <v>11.35041259132642</v>
       </c>
       <c r="K18">
-        <v>11.89763307255041</v>
+        <v>17.22060167348859</v>
       </c>
       <c r="L18">
-        <v>5.207858056474243</v>
+        <v>10.70800823277224</v>
       </c>
       <c r="M18">
-        <v>10.28331957559525</v>
+        <v>18.53888286557605</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.34105150146933</v>
+        <v>20.9733314697793</v>
       </c>
       <c r="C19">
-        <v>6.02015261370408</v>
+        <v>3.390831053862734</v>
       </c>
       <c r="D19">
-        <v>7.154344335197633</v>
+        <v>4.855846150616131</v>
       </c>
       <c r="E19">
-        <v>5.545622486616453</v>
+        <v>10.47367085170838</v>
       </c>
       <c r="F19">
-        <v>78.92620019996735</v>
+        <v>74.08882624668975</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.872441894628163</v>
+        <v>11.34931046732119</v>
       </c>
       <c r="K19">
-        <v>11.86443449851178</v>
+        <v>17.22187924802564</v>
       </c>
       <c r="L19">
-        <v>5.212627830841869</v>
+        <v>10.71101873746299</v>
       </c>
       <c r="M19">
-        <v>10.27586697103857</v>
+        <v>18.5431386373789</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55087540808498</v>
+        <v>20.97490585928081</v>
       </c>
       <c r="C20">
-        <v>6.139334927832351</v>
+        <v>3.443437582778115</v>
       </c>
       <c r="D20">
-        <v>7.260021578296767</v>
+        <v>4.903196195891471</v>
       </c>
       <c r="E20">
-        <v>5.528724962911358</v>
+        <v>10.46579820296736</v>
       </c>
       <c r="F20">
-        <v>80.00358748822914</v>
+        <v>74.41786113888169</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.896900438226933</v>
+        <v>11.35427811014513</v>
       </c>
       <c r="K20">
-        <v>12.0143406128201</v>
+        <v>17.21647691218832</v>
       </c>
       <c r="L20">
-        <v>5.191389210004335</v>
+        <v>10.69757404318007</v>
       </c>
       <c r="M20">
-        <v>10.31013096933312</v>
+        <v>18.52423387762429</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.26268161980782</v>
+        <v>20.98767233688898</v>
       </c>
       <c r="C21">
-        <v>6.533136500256301</v>
+        <v>3.614161153217334</v>
       </c>
       <c r="D21">
-        <v>7.609355237056715</v>
+        <v>5.058171758139559</v>
       </c>
       <c r="E21">
-        <v>5.473331382081737</v>
+        <v>10.44031204091876</v>
       </c>
       <c r="F21">
-        <v>83.58226777137557</v>
+        <v>75.51576391031711</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.980425203116059</v>
+        <v>11.37110764283071</v>
       </c>
       <c r="K21">
-        <v>12.52690821039536</v>
+        <v>17.20440054364095</v>
       </c>
       <c r="L21">
-        <v>5.124088051064499</v>
+        <v>10.65419938004844</v>
       </c>
       <c r="M21">
-        <v>10.4383325156518</v>
+        <v>18.46503508463308</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.73297408821239</v>
+        <v>21.00157860033015</v>
       </c>
       <c r="C22">
-        <v>6.786061508836714</v>
+        <v>3.72123430996896</v>
       </c>
       <c r="D22">
-        <v>7.833581527865177</v>
+        <v>5.156325941460818</v>
       </c>
       <c r="E22">
-        <v>5.438124698814117</v>
+        <v>10.4243712504129</v>
       </c>
       <c r="F22">
-        <v>85.89108490075458</v>
+        <v>76.22696178893798</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.036125855940147</v>
+        <v>11.38220973984455</v>
       </c>
       <c r="K22">
-        <v>12.91169286180416</v>
+        <v>17.20103884649515</v>
       </c>
       <c r="L22">
-        <v>5.083265568763068</v>
+        <v>10.62718740266648</v>
       </c>
       <c r="M22">
-        <v>10.53232887934601</v>
+        <v>18.4295657766073</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.48149890359888</v>
+        <v>20.993648371027</v>
       </c>
       <c r="C23">
-        <v>6.651443263639491</v>
+        <v>3.664500141267585</v>
       </c>
       <c r="D23">
-        <v>7.714267719674011</v>
+        <v>5.104229651681388</v>
       </c>
       <c r="E23">
-        <v>5.45682615770076</v>
+        <v>10.43281385322377</v>
       </c>
       <c r="F23">
-        <v>84.66151387666237</v>
+        <v>75.84800543010253</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.006288170155026</v>
+        <v>11.37627495043754</v>
       </c>
       <c r="K23">
-        <v>12.68561374299923</v>
+        <v>17.20241834680772</v>
       </c>
       <c r="L23">
-        <v>5.104754317955646</v>
+        <v>10.64148222265872</v>
       </c>
       <c r="M23">
-        <v>10.48119640095402</v>
+        <v>18.44820162479974</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.53932695970046</v>
+        <v>20.9747912544948</v>
       </c>
       <c r="C24">
-        <v>6.132816141793276</v>
+        <v>3.440571318622836</v>
       </c>
       <c r="D24">
-        <v>7.254240237889868</v>
+        <v>4.900611259250849</v>
       </c>
       <c r="E24">
-        <v>5.529647624578369</v>
+        <v>10.46622689311919</v>
       </c>
       <c r="F24">
-        <v>79.94457831147147</v>
+        <v>74.39981900576366</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.895552480457528</v>
+        <v>11.35400478702384</v>
       </c>
       <c r="K24">
-        <v>12.00607500669031</v>
+        <v>17.21675074136763</v>
       </c>
       <c r="L24">
-        <v>5.192540594329454</v>
+        <v>10.69830558847572</v>
       </c>
       <c r="M24">
-        <v>10.30820128486641</v>
+        <v>18.52525579469679</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.54530962662856</v>
+        <v>20.97838506227171</v>
       </c>
       <c r="C25">
-        <v>5.551233460110605</v>
+        <v>3.179783786733471</v>
       </c>
       <c r="D25">
-        <v>6.739420535712047</v>
+        <v>4.667972888190977</v>
       </c>
       <c r="E25">
-        <v>5.612677665681791</v>
+        <v>10.50536295188881</v>
       </c>
       <c r="F25">
-        <v>74.72489352266598</v>
+        <v>72.81486936727242</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.780211866645978</v>
+        <v>11.33042828990342</v>
       </c>
       <c r="K25">
-        <v>11.30170238226522</v>
+        <v>17.25163462422715</v>
       </c>
       <c r="L25">
-        <v>5.299961077551398</v>
+        <v>10.76536012803996</v>
       </c>
       <c r="M25">
-        <v>10.16250556658283</v>
+        <v>18.6221860916994</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.00161372784055</v>
+        <v>13.83433399918349</v>
       </c>
       <c r="C2">
-        <v>2.971355352184129</v>
+        <v>5.101054154506418</v>
       </c>
       <c r="D2">
-        <v>4.486033468703653</v>
+        <v>6.343568153985196</v>
       </c>
       <c r="E2">
-        <v>10.53686874755594</v>
+        <v>5.67788280076424</v>
       </c>
       <c r="F2">
-        <v>71.63293216806524</v>
+        <v>70.77030971766183</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.31345065817434</v>
+        <v>7.698161475870988</v>
       </c>
       <c r="K2">
-        <v>17.29396089744464</v>
+        <v>10.80831705162167</v>
       </c>
       <c r="L2">
-        <v>10.81972464555603</v>
+        <v>5.38923663936058</v>
       </c>
       <c r="M2">
-        <v>18.70543065278988</v>
+        <v>10.08733663176852</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,34 +462,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.03016882288832</v>
+        <v>13.36719436902805</v>
       </c>
       <c r="C3">
-        <v>2.819988934432768</v>
+        <v>4.781102395065742</v>
       </c>
       <c r="D3">
-        <v>4.356415891133224</v>
+        <v>6.064704398302963</v>
       </c>
       <c r="E3">
-        <v>10.55991303917255</v>
+        <v>5.724711977402333</v>
       </c>
       <c r="F3">
-        <v>70.82504543664436</v>
+        <v>68.02519988068312</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.30218204383513</v>
+        <v>7.644068178181838</v>
       </c>
       <c r="K3">
-        <v>17.33297963058629</v>
+        <v>10.49044434783842</v>
       </c>
       <c r="L3">
-        <v>10.85970154143504</v>
+        <v>5.455784437085582</v>
       </c>
       <c r="M3">
-        <v>18.76925023135885</v>
+        <v>10.05494620202264</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -503,34 +503,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.05400610868024</v>
+        <v>13.088334374875</v>
       </c>
       <c r="C4">
-        <v>2.776838938734645</v>
+        <v>4.577015688326496</v>
       </c>
       <c r="D4">
-        <v>4.273843329462036</v>
+        <v>5.888302750122964</v>
       </c>
       <c r="E4">
-        <v>10.57490195254308</v>
+        <v>5.754797845864805</v>
       </c>
       <c r="F4">
-        <v>70.32644243018918</v>
+        <v>66.31007947007841</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.2953799438293</v>
+        <v>7.611519465926684</v>
       </c>
       <c r="K4">
-        <v>17.36201502296626</v>
+        <v>10.30373490009045</v>
       </c>
       <c r="L4">
-        <v>10.88579955826696</v>
+        <v>5.499542547399585</v>
       </c>
       <c r="M4">
-        <v>18.81208635761337</v>
+        <v>10.04373028120229</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -544,34 +544,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.06530247405438</v>
+        <v>12.97682085383571</v>
       </c>
       <c r="C5">
-        <v>2.765640278106161</v>
+        <v>4.491892528391399</v>
       </c>
       <c r="D5">
-        <v>4.239464926892093</v>
+        <v>5.815132299334879</v>
       </c>
       <c r="E5">
-        <v>10.58122186789461</v>
+        <v>5.767397468183777</v>
       </c>
       <c r="F5">
-        <v>70.12274315558268</v>
+        <v>65.60419150186002</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.29263745089993</v>
+        <v>7.598411820561663</v>
       </c>
       <c r="K5">
-        <v>17.3751208662343</v>
+        <v>10.22983154810422</v>
       </c>
       <c r="L5">
-        <v>10.89682589449631</v>
+        <v>5.518091881748095</v>
       </c>
       <c r="M5">
-        <v>18.8304601804316</v>
+        <v>10.04127009562185</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -585,34 +585,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.067273707782</v>
+        <v>12.95843607052254</v>
       </c>
       <c r="C6">
-        <v>2.763815866735554</v>
+        <v>4.477638836477836</v>
       </c>
       <c r="D6">
-        <v>4.233713036038391</v>
+        <v>5.802905423352866</v>
       </c>
       <c r="E6">
-        <v>10.58228409795148</v>
+        <v>5.769510246679696</v>
       </c>
       <c r="F6">
-        <v>70.08889171700487</v>
+        <v>65.48657476543667</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.29218383947566</v>
+        <v>7.596244435270563</v>
       </c>
       <c r="K6">
-        <v>17.37737390849612</v>
+        <v>10.21769329672109</v>
       </c>
       <c r="L6">
-        <v>10.8986804625368</v>
+        <v>5.521215025387667</v>
       </c>
       <c r="M6">
-        <v>18.83356656266567</v>
+        <v>10.04098699836739</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -626,34 +626,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.05415205235955</v>
+        <v>13.08682169897756</v>
       </c>
       <c r="C7">
-        <v>2.776685570714607</v>
+        <v>4.575875650352869</v>
       </c>
       <c r="D7">
-        <v>4.273382613565515</v>
+        <v>5.887321123890541</v>
       </c>
       <c r="E7">
-        <v>10.57498632660982</v>
+        <v>5.754966389033454</v>
       </c>
       <c r="F7">
-        <v>70.32369718454717</v>
+        <v>66.30058710175774</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.29534283845374</v>
+        <v>7.611342073039255</v>
       </c>
       <c r="K7">
-        <v>17.3621866203903</v>
+        <v>10.30272930764492</v>
       </c>
       <c r="L7">
-        <v>10.88594667821422</v>
+        <v>5.499789818475048</v>
       </c>
       <c r="M7">
-        <v>18.81233043782434</v>
+        <v>10.04368864991993</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -667,34 +667,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.0101496012547</v>
+        <v>13.67168112928212</v>
       </c>
       <c r="C8">
-        <v>2.920193009801353</v>
+        <v>4.992295115422887</v>
       </c>
       <c r="D8">
-        <v>4.441973625300726</v>
+        <v>6.248498029738144</v>
       </c>
       <c r="E8">
-        <v>10.54464056480838</v>
+        <v>5.693755574113044</v>
       </c>
       <c r="F8">
-        <v>71.35498077092858</v>
+        <v>69.83020222717921</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.30954099955497</v>
+        <v>7.679365280919606</v>
       </c>
       <c r="K8">
-        <v>17.30635890308263</v>
+        <v>10.69698939705403</v>
       </c>
       <c r="L8">
-        <v>10.83318709888852</v>
+        <v>5.411573862647555</v>
       </c>
       <c r="M8">
-        <v>18.72667781879594</v>
+        <v>10.0743261612732</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -708,34 +708,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.97397554205978</v>
+        <v>14.87706762638735</v>
       </c>
       <c r="C9">
-        <v>3.27019218309845</v>
+        <v>5.750377431949234</v>
       </c>
       <c r="D9">
-        <v>4.748030900005522</v>
+        <v>6.91541162263267</v>
       </c>
       <c r="E9">
-        <v>10.49176393706377</v>
+        <v>5.58409044211401</v>
       </c>
       <c r="F9">
-        <v>73.35140493925365</v>
+        <v>76.50079380505763</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.33831069465592</v>
+        <v>7.81857761008752</v>
       </c>
       <c r="K9">
-        <v>17.2372936729259</v>
+        <v>11.53512501163647</v>
       </c>
       <c r="L9">
-        <v>10.74199967621628</v>
+        <v>5.262148702589849</v>
       </c>
       <c r="M9">
-        <v>18.58768980651897</v>
+        <v>10.20639597242979</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -749,34 +749,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.97802747226157</v>
+        <v>15.79333482859267</v>
       </c>
       <c r="C10">
-        <v>3.502869419751057</v>
+        <v>6.275172698043662</v>
       </c>
       <c r="D10">
-        <v>4.956923533248705</v>
+        <v>7.380513451125011</v>
       </c>
       <c r="E10">
-        <v>10.45691557526518</v>
+        <v>5.50954033978216</v>
       </c>
       <c r="F10">
-        <v>74.79490540097549</v>
+        <v>81.23512334579448</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.36001433475531</v>
+        <v>7.92525145237237</v>
       </c>
       <c r="K10">
-        <v>17.21132990371408</v>
+        <v>12.18826306109345</v>
       </c>
       <c r="L10">
-        <v>10.68243069661502</v>
+        <v>5.167670359391616</v>
       </c>
       <c r="M10">
-        <v>18.50325401577514</v>
+        <v>10.35178675973151</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -790,34 +790,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.98652062791047</v>
+        <v>16.21626258742835</v>
       </c>
       <c r="C11">
-        <v>3.60336083748751</v>
+        <v>6.507888819221427</v>
       </c>
       <c r="D11">
-        <v>5.048310776973781</v>
+        <v>7.586961188729517</v>
       </c>
       <c r="E11">
-        <v>10.44192171643683</v>
+        <v>5.476862057354063</v>
       </c>
       <c r="F11">
-        <v>75.44497729968231</v>
+        <v>83.35214471488409</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.37001109650154</v>
+        <v>7.974950440601009</v>
       </c>
       <c r="K11">
-        <v>17.20491903955034</v>
+        <v>12.49330616237334</v>
       </c>
       <c r="L11">
-        <v>10.65693205546888</v>
+        <v>5.128267781498443</v>
       </c>
       <c r="M11">
-        <v>18.46868341311757</v>
+        <v>10.42944003117894</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -831,34 +831,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.99069138652743</v>
+        <v>16.37728512997576</v>
       </c>
       <c r="C12">
-        <v>3.640642027955948</v>
+        <v>6.595241291922753</v>
       </c>
       <c r="D12">
-        <v>5.082380787547298</v>
+        <v>7.664433977739316</v>
       </c>
       <c r="E12">
-        <v>10.43636673720712</v>
+        <v>5.464658961458186</v>
       </c>
       <c r="F12">
-        <v>75.6900669662371</v>
+        <v>84.1486356465274</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.37381433758496</v>
+        <v>7.993959256437696</v>
       </c>
       <c r="K12">
-        <v>17.20326872315728</v>
+        <v>12.6099663529803</v>
       </c>
       <c r="L12">
-        <v>10.64750551947999</v>
+        <v>5.113886921853115</v>
       </c>
       <c r="M12">
-        <v>18.45614477409003</v>
+        <v>10.46058936903485</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -872,34 +872,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.98975071984342</v>
+        <v>16.3425671851997</v>
       </c>
       <c r="C13">
-        <v>3.63264725557303</v>
+        <v>6.576461086983429</v>
       </c>
       <c r="D13">
-        <v>5.0750672477273</v>
+        <v>7.6477795213597</v>
       </c>
       <c r="E13">
-        <v>10.43755764669207</v>
+        <v>5.467279593113441</v>
       </c>
       <c r="F13">
-        <v>75.63733255273111</v>
+        <v>83.9773246621682</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.37299445674557</v>
+        <v>7.989856615537999</v>
       </c>
       <c r="K13">
-        <v>17.20358956905592</v>
+        <v>12.58479010848409</v>
       </c>
       <c r="L13">
-        <v>10.64952550904312</v>
+        <v>5.11695962531479</v>
       </c>
       <c r="M13">
-        <v>18.45882061645348</v>
+        <v>10.45380178396813</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -913,34 +913,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.98684464021928</v>
+        <v>16.22949252756183</v>
       </c>
       <c r="C14">
-        <v>3.60644348178396</v>
+        <v>6.515090252651187</v>
       </c>
       <c r="D14">
-        <v>5.051124556063568</v>
+        <v>7.593348814391438</v>
       </c>
       <c r="E14">
-        <v>10.44146224605163</v>
+        <v>5.475854701670277</v>
       </c>
       <c r="F14">
-        <v>75.4651633322563</v>
+        <v>83.41777534465218</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.37032363761738</v>
+        <v>7.976510396115029</v>
       </c>
       <c r="K14">
-        <v>17.204767685371</v>
+        <v>12.50288075245068</v>
       </c>
       <c r="L14">
-        <v>10.65615193862633</v>
+        <v>5.127073674353173</v>
       </c>
       <c r="M14">
-        <v>18.46764077691112</v>
+        <v>10.43196723395514</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -954,34 +954,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.98518883264373</v>
+        <v>16.16034449166493</v>
       </c>
       <c r="C15">
-        <v>3.590292219692845</v>
+        <v>6.477401286280525</v>
       </c>
       <c r="D15">
-        <v>5.036388754943149</v>
+        <v>7.559917847550592</v>
       </c>
       <c r="E15">
-        <v>10.44386990855179</v>
+        <v>5.481129343074779</v>
       </c>
       <c r="F15">
-        <v>75.35956040581006</v>
+        <v>83.07436553775236</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.3686899836928</v>
+        <v>7.968360696970028</v>
       </c>
       <c r="K15">
-        <v>17.20559056246333</v>
+        <v>12.45285889868459</v>
       </c>
       <c r="L15">
-        <v>10.66024064997909</v>
+        <v>5.133339983900911</v>
       </c>
       <c r="M15">
-        <v>18.47311534153991</v>
+        <v>10.41882273774211</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -995,34 +995,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.97760611640891</v>
+        <v>15.76581688068631</v>
       </c>
       <c r="C16">
-        <v>3.496194059895034</v>
+        <v>6.259850748926836</v>
       </c>
       <c r="D16">
-        <v>4.95087678327253</v>
+        <v>7.366920987913216</v>
       </c>
       <c r="E16">
-        <v>10.45791268722469</v>
+        <v>5.51170027924313</v>
       </c>
       <c r="F16">
-        <v>74.75227786946884</v>
+        <v>81.0960385668599</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.35936350316809</v>
+        <v>7.922028775800836</v>
       </c>
       <c r="K16">
-        <v>17.21185761499082</v>
+        <v>12.16848736161396</v>
       </c>
       <c r="L16">
-        <v>10.6841292141987</v>
+        <v>5.170319488511702</v>
       </c>
       <c r="M16">
-        <v>18.50559058117039</v>
+        <v>10.34695102660223</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1036,34 +1036,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.97465667352009</v>
+        <v>15.52533492123925</v>
       </c>
       <c r="C17">
-        <v>3.437094115652996</v>
+        <v>6.124911823071185</v>
       </c>
       <c r="D17">
-        <v>4.897476125670179</v>
+        <v>7.247230267293755</v>
       </c>
       <c r="E17">
-        <v>10.46674699587579</v>
+        <v>5.530766636995454</v>
       </c>
       <c r="F17">
-        <v>74.37794887930625</v>
+        <v>79.8730390300382</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.35367361675759</v>
+        <v>7.893919587713053</v>
       </c>
       <c r="K17">
-        <v>17.21708610615924</v>
+        <v>11.99606273759859</v>
       </c>
       <c r="L17">
-        <v>10.69919321303744</v>
+        <v>5.193938302045785</v>
       </c>
       <c r="M17">
-        <v>18.52649678337206</v>
+        <v>10.30587004057109</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1077,34 +1077,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.97358631086865</v>
+        <v>15.38759008726345</v>
       </c>
       <c r="C18">
-        <v>3.402597471053245</v>
+        <v>6.046725962467764</v>
       </c>
       <c r="D18">
-        <v>4.866419634195828</v>
+        <v>7.17790193056294</v>
       </c>
       <c r="E18">
-        <v>10.47190913161473</v>
+        <v>5.54184973092237</v>
       </c>
       <c r="F18">
-        <v>74.16203277682611</v>
+        <v>79.16613965393357</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.35041259132642</v>
+        <v>7.877860933482067</v>
       </c>
       <c r="K18">
-        <v>17.22060167348859</v>
+        <v>11.89763307255044</v>
       </c>
       <c r="L18">
-        <v>10.70800823277224</v>
+        <v>5.207858056474212</v>
       </c>
       <c r="M18">
-        <v>18.53888286557605</v>
+        <v>10.28331957559528</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1118,34 +1118,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.9733314697793</v>
+        <v>15.34105150146928</v>
       </c>
       <c r="C19">
-        <v>3.390831053862734</v>
+        <v>6.020152613704006</v>
       </c>
       <c r="D19">
-        <v>4.855846150616131</v>
+        <v>7.15434433519765</v>
       </c>
       <c r="E19">
-        <v>10.47367085170838</v>
+        <v>5.545622486616497</v>
       </c>
       <c r="F19">
-        <v>74.08882624668975</v>
+        <v>78.92620019996737</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.34931046732119</v>
+        <v>7.872441894628141</v>
       </c>
       <c r="K19">
-        <v>17.22187924802564</v>
+        <v>11.86443449851174</v>
       </c>
       <c r="L19">
-        <v>10.71101873746299</v>
+        <v>5.212627830841857</v>
       </c>
       <c r="M19">
-        <v>18.5431386373789</v>
+        <v>10.27586697103852</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1159,34 +1159,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.97490585928081</v>
+        <v>15.55087540808502</v>
       </c>
       <c r="C20">
-        <v>3.443437582778115</v>
+        <v>6.139334927832314</v>
       </c>
       <c r="D20">
-        <v>4.903196195891471</v>
+        <v>7.260021578296779</v>
       </c>
       <c r="E20">
-        <v>10.46579820296736</v>
+        <v>5.528724962911244</v>
       </c>
       <c r="F20">
-        <v>74.41786113888169</v>
+        <v>80.00358748822902</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.35427811014513</v>
+        <v>7.896900438226974</v>
       </c>
       <c r="K20">
-        <v>17.21647691218832</v>
+        <v>12.01434061282012</v>
       </c>
       <c r="L20">
-        <v>10.69757404318007</v>
+        <v>5.191389210004209</v>
       </c>
       <c r="M20">
-        <v>18.52423387762429</v>
+        <v>10.31013096933311</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1200,34 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.98767233688898</v>
+        <v>16.26268161980774</v>
       </c>
       <c r="C21">
-        <v>3.614161153217334</v>
+        <v>6.533136500256359</v>
       </c>
       <c r="D21">
-        <v>5.058171758139559</v>
+        <v>7.609355237056736</v>
       </c>
       <c r="E21">
-        <v>10.44031204091876</v>
+        <v>5.473331382081752</v>
       </c>
       <c r="F21">
-        <v>75.51576391031711</v>
+        <v>83.58226777137612</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.37110764283071</v>
+        <v>7.980425203116055</v>
       </c>
       <c r="K21">
-        <v>17.20440054364095</v>
+        <v>12.52690821039527</v>
       </c>
       <c r="L21">
-        <v>10.65419938004844</v>
+        <v>5.124088051064451</v>
       </c>
       <c r="M21">
-        <v>18.46503508463308</v>
+        <v>10.43833251565169</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1241,34 +1241,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.00157860033015</v>
+        <v>16.7329740882124</v>
       </c>
       <c r="C22">
-        <v>3.72123430996896</v>
+        <v>6.786061508836608</v>
       </c>
       <c r="D22">
-        <v>5.156325941460818</v>
+        <v>7.833581527865211</v>
       </c>
       <c r="E22">
-        <v>10.4243712504129</v>
+        <v>5.438124698814113</v>
       </c>
       <c r="F22">
-        <v>76.22696178893798</v>
+        <v>85.89108490075451</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.38220973984455</v>
+        <v>8.036125855940101</v>
       </c>
       <c r="K22">
-        <v>17.20103884649515</v>
+        <v>12.91169286180426</v>
       </c>
       <c r="L22">
-        <v>10.62718740266648</v>
+        <v>5.083265568763109</v>
       </c>
       <c r="M22">
-        <v>18.4295657766073</v>
+        <v>10.53232887934597</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1282,34 +1282,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.993648371027</v>
+        <v>16.4814989035989</v>
       </c>
       <c r="C23">
-        <v>3.664500141267585</v>
+        <v>6.651443263639341</v>
       </c>
       <c r="D23">
-        <v>5.104229651681388</v>
+        <v>7.714267719673952</v>
       </c>
       <c r="E23">
-        <v>10.43281385322377</v>
+        <v>5.456826157700872</v>
       </c>
       <c r="F23">
-        <v>75.84800543010253</v>
+        <v>84.66151387666257</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.37627495043754</v>
+        <v>8.00628817015507</v>
       </c>
       <c r="K23">
-        <v>17.20241834680772</v>
+        <v>12.68561374299922</v>
       </c>
       <c r="L23">
-        <v>10.64148222265872</v>
+        <v>5.104754317955752</v>
       </c>
       <c r="M23">
-        <v>18.44820162479974</v>
+        <v>10.48119640095405</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1323,34 +1323,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.9747912544948</v>
+        <v>15.53932695970042</v>
       </c>
       <c r="C24">
-        <v>3.440571318622836</v>
+        <v>6.132816141793032</v>
       </c>
       <c r="D24">
-        <v>4.900611259250849</v>
+        <v>7.254240237889781</v>
       </c>
       <c r="E24">
-        <v>10.46622689311919</v>
+        <v>5.529647624578491</v>
       </c>
       <c r="F24">
-        <v>74.39981900576366</v>
+        <v>79.94457831147149</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.35400478702384</v>
+        <v>7.895552480457481</v>
       </c>
       <c r="K24">
-        <v>17.21675074136763</v>
+        <v>12.00607500669027</v>
       </c>
       <c r="L24">
-        <v>10.69830558847572</v>
+        <v>5.192540594329577</v>
       </c>
       <c r="M24">
-        <v>18.52525579469679</v>
+        <v>10.3082012848664</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.97838506227171</v>
+        <v>14.54530962662852</v>
       </c>
       <c r="C25">
-        <v>3.179783786733471</v>
+        <v>5.551233460110568</v>
       </c>
       <c r="D25">
-        <v>4.667972888190977</v>
+        <v>6.739420535712097</v>
       </c>
       <c r="E25">
-        <v>10.50536295188881</v>
+        <v>5.612677665681985</v>
       </c>
       <c r="F25">
-        <v>72.81486936727242</v>
+        <v>74.72489352266678</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.33042828990342</v>
+        <v>7.780211866645979</v>
       </c>
       <c r="K25">
-        <v>17.25163462422715</v>
+        <v>11.30170238226516</v>
       </c>
       <c r="L25">
-        <v>10.76536012803996</v>
+        <v>5.299961077551376</v>
       </c>
       <c r="M25">
-        <v>18.6221860916994</v>
+        <v>10.16250556658283</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,988 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83433399918349</v>
+        <v>26.59346580905405</v>
       </c>
       <c r="C2">
-        <v>5.101054154506418</v>
+        <v>17.53261429194877</v>
       </c>
       <c r="D2">
-        <v>6.343568153985196</v>
+        <v>2.330963138681561</v>
       </c>
       <c r="E2">
-        <v>5.67788280076424</v>
+        <v>5.654577096849249</v>
       </c>
       <c r="F2">
-        <v>70.77030971766183</v>
+        <v>39.27705011833691</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3.025571948615356</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.615686651579336</v>
       </c>
       <c r="J2">
-        <v>7.698161475870988</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>10.80831705162167</v>
+        <v>24.94297564496192</v>
       </c>
       <c r="L2">
-        <v>5.38923663936058</v>
+        <v>5.572087758083772</v>
       </c>
       <c r="M2">
-        <v>10.08733663176852</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.374985638193969</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.78057563256871</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.36719436902805</v>
+        <v>24.97527715550103</v>
       </c>
       <c r="C3">
-        <v>4.781102395065742</v>
+        <v>16.31268219730871</v>
       </c>
       <c r="D3">
-        <v>6.064704398302963</v>
+        <v>2.24586847018228</v>
       </c>
       <c r="E3">
-        <v>5.724711977402333</v>
+        <v>5.481962713704179</v>
       </c>
       <c r="F3">
-        <v>68.02519988068312</v>
+        <v>37.89993501373068</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3.359478677746846</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.890310752054397</v>
       </c>
       <c r="J3">
-        <v>7.644068178181838</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.49044434783842</v>
+        <v>24.37249459175933</v>
       </c>
       <c r="L3">
-        <v>5.455784437085582</v>
+        <v>5.477559883972765</v>
       </c>
       <c r="M3">
-        <v>10.05494620202264</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.060926455342146</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.92700619703326</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.088334374875</v>
+        <v>23.92898343531842</v>
       </c>
       <c r="C4">
-        <v>4.577015688326496</v>
+        <v>15.52478359746477</v>
       </c>
       <c r="D4">
-        <v>5.888302750122964</v>
+        <v>2.192822163311805</v>
       </c>
       <c r="E4">
-        <v>5.754797845864805</v>
+        <v>5.373385731194501</v>
       </c>
       <c r="F4">
-        <v>66.31007947007841</v>
+        <v>37.03797632649783</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>3.570873208227127</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.064684475606059</v>
       </c>
       <c r="J4">
-        <v>7.611519465926684</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.30373490009045</v>
+        <v>24.01897923826334</v>
       </c>
       <c r="L4">
-        <v>5.499542547399585</v>
+        <v>5.417669620650845</v>
       </c>
       <c r="M4">
-        <v>10.04373028120229</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.863013596965089</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>14.01718052588231</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.97682085383571</v>
+        <v>23.48082285356484</v>
       </c>
       <c r="C5">
-        <v>4.491892528391399</v>
+        <v>15.19732241286884</v>
       </c>
       <c r="D5">
-        <v>5.815132299334879</v>
+        <v>2.170434111884471</v>
       </c>
       <c r="E5">
-        <v>5.767397468183777</v>
+        <v>5.328197651704062</v>
       </c>
       <c r="F5">
-        <v>65.60419150186002</v>
+        <v>36.66614421904691</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3.659292788450776</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.139937902766824</v>
       </c>
       <c r="J5">
-        <v>7.598411820561663</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>10.22983154810422</v>
+        <v>23.86208614039641</v>
       </c>
       <c r="L5">
-        <v>5.518091881748095</v>
+        <v>5.392296369399132</v>
       </c>
       <c r="M5">
-        <v>10.04127009562185</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.782070722738752</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>14.05201255558764</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.95843607052254</v>
+        <v>23.39498315864705</v>
       </c>
       <c r="C6">
-        <v>4.477638836477836</v>
+        <v>15.14702643080244</v>
       </c>
       <c r="D6">
-        <v>5.802905423352866</v>
+        <v>2.166028514655775</v>
       </c>
       <c r="E6">
-        <v>5.769510246679696</v>
+        <v>5.320334287553984</v>
       </c>
       <c r="F6">
-        <v>65.48657476543667</v>
+        <v>36.58359970598282</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3.674841550928547</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.155980918973111</v>
       </c>
       <c r="J6">
-        <v>7.596244435270563</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>10.21769329672109</v>
+        <v>23.82117132048633</v>
       </c>
       <c r="L6">
-        <v>5.521215025387667</v>
+        <v>5.387457270604136</v>
       </c>
       <c r="M6">
-        <v>10.04098699836739</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.76967628416253</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>14.05536831834125</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.08682169897756</v>
+        <v>23.89454553608524</v>
       </c>
       <c r="C7">
-        <v>4.575875650352869</v>
+        <v>15.53157522961341</v>
       </c>
       <c r="D7">
-        <v>5.887321123890541</v>
+        <v>2.190656676406807</v>
       </c>
       <c r="E7">
-        <v>5.754966389033454</v>
+        <v>5.371918524616464</v>
       </c>
       <c r="F7">
-        <v>66.30058710175774</v>
+        <v>36.97740155962042</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3.574129321660341</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.074911405718921</v>
       </c>
       <c r="J7">
-        <v>7.611342073039255</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.30272930764492</v>
+        <v>23.97667710819139</v>
       </c>
       <c r="L7">
-        <v>5.499789818475048</v>
+        <v>5.415718190326904</v>
       </c>
       <c r="M7">
-        <v>10.04368864991993</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.864940332911234</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>14.01105802718798</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.67168112928212</v>
+        <v>26.01147215957875</v>
       </c>
       <c r="C8">
-        <v>4.992295115422887</v>
+        <v>17.13349338070121</v>
       </c>
       <c r="D8">
-        <v>6.248498029738144</v>
+        <v>2.299289814885975</v>
       </c>
       <c r="E8">
-        <v>5.693755574113044</v>
+        <v>5.594472535217922</v>
       </c>
       <c r="F8">
-        <v>69.83020222717921</v>
+        <v>38.73531758035546</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.142054642799835</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.721170227329652</v>
       </c>
       <c r="J8">
-        <v>7.679365280919606</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>10.69698939705403</v>
+        <v>24.69525125607934</v>
       </c>
       <c r="L8">
-        <v>5.411573862647555</v>
+        <v>5.537816023029488</v>
       </c>
       <c r="M8">
-        <v>10.0743261612732</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.271620449232822</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.82253986437964</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.87706762638735</v>
+        <v>29.78562460826705</v>
       </c>
       <c r="C9">
-        <v>5.750377431949234</v>
+        <v>19.95212837325582</v>
       </c>
       <c r="D9">
-        <v>6.91541162263267</v>
+        <v>2.510016119386075</v>
       </c>
       <c r="E9">
-        <v>5.58409044211401</v>
+        <v>6.013275105055817</v>
       </c>
       <c r="F9">
-        <v>76.50079380505763</v>
+        <v>42.13191854580497</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2.339683141665577</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.056286822996805</v>
       </c>
       <c r="J9">
-        <v>7.81857761008752</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>11.53512501163647</v>
+        <v>26.14398510282058</v>
       </c>
       <c r="L9">
-        <v>5.262148702589849</v>
+        <v>5.765977949097374</v>
       </c>
       <c r="M9">
-        <v>10.20639597242979</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.020977100719868</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>13.46556716624626</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.79333482859267</v>
+        <v>32.18559692038475</v>
       </c>
       <c r="C10">
-        <v>6.275172698043662</v>
+        <v>21.80499877209922</v>
       </c>
       <c r="D10">
-        <v>7.380513451125011</v>
+        <v>2.667321349114868</v>
       </c>
       <c r="E10">
-        <v>5.50954033978216</v>
+        <v>6.30015626503841</v>
       </c>
       <c r="F10">
-        <v>81.23512334579448</v>
+        <v>44.23160514018043</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1.814171923054151</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.610697609764643</v>
       </c>
       <c r="J10">
-        <v>7.92525145237237</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>12.18826306109345</v>
+        <v>27.00747445979763</v>
       </c>
       <c r="L10">
-        <v>5.167670359391616</v>
+        <v>5.910342326004986</v>
       </c>
       <c r="M10">
-        <v>10.35178675973151</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.454192323270981</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>13.1745408793636</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.21626258742835</v>
+        <v>32.32746142793312</v>
       </c>
       <c r="C11">
-        <v>6.507888819221427</v>
+        <v>22.27105771946056</v>
       </c>
       <c r="D11">
-        <v>7.586961188729517</v>
+        <v>2.784493042438783</v>
       </c>
       <c r="E11">
-        <v>5.476862057354063</v>
+        <v>6.412135316889412</v>
       </c>
       <c r="F11">
-        <v>83.35214471488409</v>
+        <v>42.78071572905166</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.766353831288865</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.526831972922543</v>
       </c>
       <c r="J11">
-        <v>7.974950440601009</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>12.49330616237334</v>
+        <v>25.95913796440225</v>
       </c>
       <c r="L11">
-        <v>5.128267781498443</v>
+        <v>5.886719264298494</v>
       </c>
       <c r="M11">
-        <v>10.42944003117894</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.884854181577518</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.83963436936658</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.37728512997576</v>
+        <v>31.981313145907</v>
       </c>
       <c r="C12">
-        <v>6.595241291922753</v>
+        <v>22.27027458026518</v>
       </c>
       <c r="D12">
-        <v>7.664433977739316</v>
+        <v>2.852280459726496</v>
       </c>
       <c r="E12">
-        <v>5.464658961458186</v>
+        <v>6.551678699569102</v>
       </c>
       <c r="F12">
-        <v>84.1486356465274</v>
+        <v>41.16262445686858</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.153884174866657</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.524758467652855</v>
       </c>
       <c r="J12">
-        <v>7.993959256437696</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>12.6099663529803</v>
+        <v>24.93754616274545</v>
       </c>
       <c r="L12">
-        <v>5.113886921853115</v>
+        <v>5.897124109878133</v>
       </c>
       <c r="M12">
-        <v>10.46058936903485</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.312590559548219</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.66248433044876</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.3425671851997</v>
+        <v>31.19395367974212</v>
       </c>
       <c r="C13">
-        <v>6.576461086983429</v>
+        <v>21.92147939388546</v>
       </c>
       <c r="D13">
-        <v>7.6477795213597</v>
+        <v>2.88372282216839</v>
       </c>
       <c r="E13">
-        <v>5.467279593113441</v>
+        <v>6.712074201468919</v>
       </c>
       <c r="F13">
-        <v>83.9773246621682</v>
+        <v>39.20874198622781</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.596634195786689</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.602784438747321</v>
       </c>
       <c r="J13">
-        <v>7.989856615537999</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>12.58479010848409</v>
+        <v>23.80561817157043</v>
       </c>
       <c r="L13">
-        <v>5.11695962531479</v>
+        <v>5.92972591516267</v>
       </c>
       <c r="M13">
-        <v>10.45380178396813</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.700450567365785</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.58659302781771</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.22949252756183</v>
+        <v>30.42572310005489</v>
       </c>
       <c r="C14">
-        <v>6.515090252651187</v>
+        <v>21.5176272641882</v>
       </c>
       <c r="D14">
-        <v>7.593348814391438</v>
+        <v>2.888662536818714</v>
       </c>
       <c r="E14">
-        <v>5.475854701670277</v>
+        <v>6.843194757352496</v>
       </c>
       <c r="F14">
-        <v>83.41777534465218</v>
+        <v>37.66022897834354</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.621095016239878</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.696702654403861</v>
       </c>
       <c r="J14">
-        <v>7.976510396115029</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>12.50288075245068</v>
+        <v>22.95115497585116</v>
       </c>
       <c r="L14">
-        <v>5.127073674353173</v>
+        <v>5.968924893860569</v>
       </c>
       <c r="M14">
-        <v>10.43196723395514</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.255052040036572</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.58282916809815</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16034449166493</v>
+        <v>30.13333832168457</v>
       </c>
       <c r="C15">
-        <v>6.477401286280525</v>
+        <v>21.34666891257076</v>
       </c>
       <c r="D15">
-        <v>7.559917847550592</v>
+        <v>2.881201573004237</v>
       </c>
       <c r="E15">
-        <v>5.481129343074779</v>
+        <v>6.865893703152484</v>
       </c>
       <c r="F15">
-        <v>83.07436553775236</v>
+        <v>37.19395727129162</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.862586660679525</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.74218381626181</v>
       </c>
       <c r="J15">
-        <v>7.968360696970028</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>12.45285889868459</v>
+        <v>22.70768746485579</v>
       </c>
       <c r="L15">
-        <v>5.133339983900911</v>
+        <v>5.975346539551859</v>
       </c>
       <c r="M15">
-        <v>10.41882273774211</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.138297699852661</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.59803246171407</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.76581688068631</v>
+        <v>29.23267314269251</v>
       </c>
       <c r="C16">
-        <v>6.259850748926836</v>
+        <v>20.63398022203147</v>
       </c>
       <c r="D16">
-        <v>7.366920987913216</v>
+        <v>2.807267212218923</v>
       </c>
       <c r="E16">
-        <v>5.51170027924313</v>
+        <v>6.711521914956972</v>
       </c>
       <c r="F16">
-        <v>81.0960385668599</v>
+        <v>36.5797523680363</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.698112695136659</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.921413604456304</v>
       </c>
       <c r="J16">
-        <v>7.922028775800836</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>12.16848736161396</v>
+        <v>22.51698450973432</v>
       </c>
       <c r="L16">
-        <v>5.170319488511702</v>
+        <v>5.903420142044015</v>
       </c>
       <c r="M16">
-        <v>10.34695102660223</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.058921799610325</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.73163543419856</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.52533492123925</v>
+        <v>28.95691445562397</v>
       </c>
       <c r="C17">
-        <v>6.124911823071185</v>
+        <v>20.30295143297537</v>
       </c>
       <c r="D17">
-        <v>7.247230267293755</v>
+        <v>2.747510552742725</v>
       </c>
       <c r="E17">
-        <v>5.530766636995454</v>
+        <v>6.512010438946112</v>
       </c>
       <c r="F17">
-        <v>79.8730390300382</v>
+        <v>36.9540567659578</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>6.006480863939546</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.010149469876537</v>
       </c>
       <c r="J17">
-        <v>7.893919587713053</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>11.99606273759859</v>
+        <v>22.83047242702784</v>
       </c>
       <c r="L17">
-        <v>5.193938302045785</v>
+        <v>5.822136420203887</v>
       </c>
       <c r="M17">
-        <v>10.30587004057109</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.237740137298595</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.83392950513025</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.38759008726345</v>
+        <v>29.21790652260906</v>
       </c>
       <c r="C18">
-        <v>6.046725962467764</v>
+        <v>20.26435507290418</v>
       </c>
       <c r="D18">
-        <v>7.17790193056294</v>
+        <v>2.694738923990957</v>
       </c>
       <c r="E18">
-        <v>5.54184973092237</v>
+        <v>6.29548939712043</v>
       </c>
       <c r="F18">
-        <v>79.16613965393357</v>
+        <v>38.25869571239291</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.813963991701565</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.017342182451214</v>
       </c>
       <c r="J18">
-        <v>7.877860933482067</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>11.89763307255044</v>
+        <v>23.64391501513033</v>
       </c>
       <c r="L18">
-        <v>5.207858056474212</v>
+        <v>5.751549469432331</v>
       </c>
       <c r="M18">
-        <v>10.28331957559528</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.666966392298072</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.94146608523448</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.34105150146928</v>
+        <v>29.84089239572862</v>
       </c>
       <c r="C19">
-        <v>6.020152613704006</v>
+        <v>20.4796148956634</v>
       </c>
       <c r="D19">
-        <v>7.15434433519765</v>
+        <v>2.646131070719021</v>
       </c>
       <c r="E19">
-        <v>5.545622486616497</v>
+        <v>6.152363317767192</v>
       </c>
       <c r="F19">
-        <v>78.92620019996737</v>
+        <v>40.11041969257795</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.419956905400335</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.975581903037171</v>
       </c>
       <c r="J19">
-        <v>7.872441894628141</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>11.86443449851174</v>
+        <v>24.73593170667616</v>
       </c>
       <c r="L19">
-        <v>5.212627830841857</v>
+        <v>5.736419080968837</v>
       </c>
       <c r="M19">
-        <v>10.27586697103852</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.279349998403509</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>13.06590981642134</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55087540808502</v>
+        <v>31.49733501453145</v>
       </c>
       <c r="C20">
-        <v>6.139334927832314</v>
+        <v>21.35398683136763</v>
       </c>
       <c r="D20">
-        <v>7.260021578296779</v>
+        <v>2.620786955690025</v>
       </c>
       <c r="E20">
-        <v>5.528724962911244</v>
+        <v>6.222157643196419</v>
       </c>
       <c r="F20">
-        <v>80.00358748822902</v>
+        <v>43.52560172941841</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.955625435026885</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.761030651523807</v>
       </c>
       <c r="J20">
-        <v>7.896900438226974</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>12.01434061282012</v>
+        <v>26.6619012124454</v>
       </c>
       <c r="L20">
-        <v>5.191389210004209</v>
+        <v>5.867752496483837</v>
       </c>
       <c r="M20">
-        <v>10.31013096933311</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.346122733163298</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>13.23130682953321</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.26268161980774</v>
+        <v>33.43088256470833</v>
       </c>
       <c r="C21">
-        <v>6.533136500256359</v>
+        <v>22.77701774740371</v>
       </c>
       <c r="D21">
-        <v>7.609355237056736</v>
+        <v>2.733418059124626</v>
       </c>
       <c r="E21">
-        <v>5.473331382081752</v>
+        <v>6.457786136544128</v>
       </c>
       <c r="F21">
-        <v>83.58226777137612</v>
+        <v>45.55419936954019</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1.61584109909615</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.609241476009642</v>
       </c>
       <c r="J21">
-        <v>7.980425203116055</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>12.52690821039527</v>
+        <v>27.59179257697343</v>
       </c>
       <c r="L21">
-        <v>5.124088051064451</v>
+        <v>6.000803387128696</v>
       </c>
       <c r="M21">
-        <v>10.43833251565169</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.805579779697341</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>13.05110400137395</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.7329740882124</v>
+        <v>34.62212867214032</v>
       </c>
       <c r="C22">
-        <v>6.786061508836608</v>
+        <v>23.64518662277645</v>
       </c>
       <c r="D22">
-        <v>7.833581527865211</v>
+        <v>2.812134037521179</v>
       </c>
       <c r="E22">
-        <v>5.438124698814113</v>
+        <v>6.606069298853756</v>
       </c>
       <c r="F22">
-        <v>85.89108490075451</v>
+        <v>46.77810776634577</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1.885809397064417</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.823807365785052</v>
       </c>
       <c r="J22">
-        <v>8.036125855940101</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>12.91169286180426</v>
+        <v>28.15710402065468</v>
       </c>
       <c r="L22">
-        <v>5.083265568763109</v>
+        <v>6.080840058902163</v>
       </c>
       <c r="M22">
-        <v>10.53232887934597</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.05082629007774</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.92779367872328</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.4814989035989</v>
+        <v>34.0157992559105</v>
       </c>
       <c r="C23">
-        <v>6.651443263639341</v>
+        <v>23.17559625416594</v>
       </c>
       <c r="D23">
-        <v>7.714267719673952</v>
+        <v>2.772153942616556</v>
       </c>
       <c r="E23">
-        <v>5.456826157700872</v>
+        <v>6.527923476686183</v>
       </c>
       <c r="F23">
-        <v>84.66151387666257</v>
+        <v>46.18084508462294</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1.744146439700175</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.705415586931065</v>
       </c>
       <c r="J23">
-        <v>8.00628817015507</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>12.68561374299922</v>
+        <v>27.89728649245623</v>
       </c>
       <c r="L23">
-        <v>5.104754317955752</v>
+        <v>6.03985702477372</v>
       </c>
       <c r="M23">
-        <v>10.48119640095405</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.917549003902099</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>13.00071044659033</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.53932695970042</v>
+        <v>31.58631095688771</v>
       </c>
       <c r="C24">
-        <v>6.132816141793032</v>
+        <v>21.34831031327986</v>
       </c>
       <c r="D24">
-        <v>7.254240237889781</v>
+        <v>2.617553658574858</v>
       </c>
       <c r="E24">
-        <v>5.529647624578491</v>
+        <v>6.228670215033341</v>
       </c>
       <c r="F24">
-        <v>79.94457831147149</v>
+        <v>43.79287193855127</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1.932959916128135</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.736890182955285</v>
       </c>
       <c r="J24">
-        <v>7.895552480457481</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>12.00607500669027</v>
+        <v>26.83983846206377</v>
       </c>
       <c r="L24">
-        <v>5.192540594329577</v>
+        <v>5.880088961678164</v>
       </c>
       <c r="M24">
-        <v>10.3082012848664</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.405399078909371</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>13.26514853285535</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.54530962662852</v>
+        <v>28.76668166269269</v>
       </c>
       <c r="C25">
-        <v>5.551233460110568</v>
+        <v>19.23817030040604</v>
       </c>
       <c r="D25">
-        <v>6.739420535712097</v>
+        <v>2.45020819604278</v>
       </c>
       <c r="E25">
-        <v>5.612677665681985</v>
+        <v>5.900345730894344</v>
       </c>
       <c r="F25">
-        <v>74.72489352266678</v>
+        <v>41.13957790590405</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2.55534359457332</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.249333452432418</v>
       </c>
       <c r="J25">
-        <v>7.780211866645979</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>11.30170238226516</v>
+        <v>25.68786738233182</v>
       </c>
       <c r="L25">
-        <v>5.299961077551376</v>
+        <v>5.702976767950138</v>
       </c>
       <c r="M25">
-        <v>10.16250556658283</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.828141494558093</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.55091345577946</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.59346580905405</v>
+        <v>25.16103850144653</v>
       </c>
       <c r="C2">
-        <v>17.53261429194877</v>
+        <v>18.06595016677327</v>
       </c>
       <c r="D2">
-        <v>2.330963138681561</v>
+        <v>2.491597275214744</v>
       </c>
       <c r="E2">
-        <v>5.654577096849249</v>
+        <v>5.754922738506426</v>
       </c>
       <c r="F2">
-        <v>39.27705011833691</v>
+        <v>36.20113451514556</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.025571948615356</v>
+        <v>2.843327169943266</v>
       </c>
       <c r="I2">
-        <v>3.615686651579336</v>
+        <v>3.403961043049856</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>24.94297564496192</v>
+        <v>22.50488972011119</v>
       </c>
       <c r="L2">
-        <v>5.572087758083772</v>
+        <v>17.89148234831649</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.61383704175373</v>
       </c>
       <c r="N2">
-        <v>8.374985638193969</v>
+        <v>5.509877110501442</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.78057563256871</v>
+        <v>8.655872126503629</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>13.27939485973586</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.97527715550103</v>
+        <v>23.65202312216035</v>
       </c>
       <c r="C3">
-        <v>16.31268219730871</v>
+        <v>16.80044883492276</v>
       </c>
       <c r="D3">
-        <v>2.24586847018228</v>
+        <v>2.425573716549721</v>
       </c>
       <c r="E3">
-        <v>5.481962713704179</v>
+        <v>5.596699217808282</v>
       </c>
       <c r="F3">
-        <v>37.89993501373068</v>
+        <v>35.08913363888762</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3.359478677746846</v>
+        <v>3.146396568153392</v>
       </c>
       <c r="I3">
-        <v>3.890310752054397</v>
+        <v>3.643317588397473</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>24.37249459175933</v>
+        <v>22.1345198006079</v>
       </c>
       <c r="L3">
-        <v>5.477559883972765</v>
+        <v>17.73405245903675</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.21797036090036</v>
       </c>
       <c r="N3">
-        <v>8.060926455342146</v>
+        <v>5.42475524881448</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>13.92700619703326</v>
+        <v>8.336698317035838</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.44191256298069</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.92898343531842</v>
+        <v>22.67393491857874</v>
       </c>
       <c r="C4">
-        <v>15.52478359746477</v>
+        <v>16.00465100092707</v>
       </c>
       <c r="D4">
-        <v>2.192822163311805</v>
+        <v>2.384805609795036</v>
       </c>
       <c r="E4">
-        <v>5.373385731194501</v>
+        <v>5.497085098429378</v>
       </c>
       <c r="F4">
-        <v>37.03797632649783</v>
+        <v>34.39412683395852</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.570873208227127</v>
+        <v>3.338537144594037</v>
       </c>
       <c r="I4">
-        <v>4.064684475606059</v>
+        <v>3.795795594246193</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>24.01897923826334</v>
+        <v>21.90535176452162</v>
       </c>
       <c r="L4">
-        <v>5.417669620650845</v>
+        <v>17.62901801290134</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.99123190074291</v>
       </c>
       <c r="N4">
-        <v>7.863013596965089</v>
+        <v>5.37075782636457</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>14.01718052588231</v>
+        <v>8.135850945701897</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.54237591125764</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.48082285356484</v>
+        <v>22.25430735384193</v>
       </c>
       <c r="C5">
-        <v>15.19732241286884</v>
+        <v>15.67977482926164</v>
       </c>
       <c r="D5">
-        <v>2.170434111884471</v>
+        <v>2.368240500749292</v>
       </c>
       <c r="E5">
-        <v>5.328197651704062</v>
+        <v>5.455608635593752</v>
       </c>
       <c r="F5">
-        <v>36.66614421904691</v>
+        <v>34.0925471266484</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.659292788450776</v>
+        <v>3.418968477747609</v>
       </c>
       <c r="I5">
-        <v>4.139937902766824</v>
+        <v>3.862441900325248</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>23.86208614039641</v>
+        <v>21.80065859892347</v>
       </c>
       <c r="L5">
-        <v>5.392296369399132</v>
+        <v>17.5749433494219</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.89582774826441</v>
       </c>
       <c r="N5">
-        <v>7.782070722738752</v>
+        <v>5.347902918292958</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>14.05201255558764</v>
+        <v>8.053716972671369</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.58225896622637</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.39498315864705</v>
+        <v>22.17381751056678</v>
       </c>
       <c r="C6">
-        <v>15.14702643080244</v>
+        <v>15.62929781749221</v>
       </c>
       <c r="D6">
-        <v>2.166028514655775</v>
+        <v>2.365641371607369</v>
       </c>
       <c r="E6">
-        <v>5.320334287553984</v>
+        <v>5.448391500517612</v>
       </c>
       <c r="F6">
-        <v>36.58359970598282</v>
+        <v>34.02329248869279</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.674841550928547</v>
+        <v>3.433119795885912</v>
       </c>
       <c r="I6">
-        <v>4.155980918973111</v>
+        <v>3.877562809012577</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>23.82117132048633</v>
+        <v>21.76993498685494</v>
       </c>
       <c r="L6">
-        <v>5.387457270604136</v>
+        <v>17.55466576143425</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.87126736019957</v>
       </c>
       <c r="N6">
-        <v>7.76967628416253</v>
+        <v>5.343588960638797</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>14.05536831834125</v>
+        <v>8.041058536335445</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.58737928977621</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.89454553608524</v>
+        <v>22.64150177024471</v>
       </c>
       <c r="C7">
-        <v>15.53157522961341</v>
+        <v>16.0109669204727</v>
       </c>
       <c r="D7">
-        <v>2.190656676406807</v>
+        <v>2.385001157481602</v>
       </c>
       <c r="E7">
-        <v>5.371918524616464</v>
+        <v>5.495743994247236</v>
       </c>
       <c r="F7">
-        <v>36.97740155962042</v>
+        <v>34.33874159292036</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.574129321660341</v>
+        <v>3.341505682193179</v>
       </c>
       <c r="I7">
-        <v>4.074911405718921</v>
+        <v>3.80724884862903</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>23.97667710819139</v>
+        <v>21.86785030961093</v>
       </c>
       <c r="L7">
-        <v>5.415718190326904</v>
+        <v>17.59836090341026</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.96517319720063</v>
       </c>
       <c r="N7">
-        <v>7.864940332911234</v>
+        <v>5.369129200972822</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>14.01105802718798</v>
+        <v>8.137574188694058</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.5388780226761</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.01147215957875</v>
+        <v>24.61849768545984</v>
       </c>
       <c r="C8">
-        <v>17.13349338070121</v>
+        <v>17.65076071151049</v>
       </c>
       <c r="D8">
-        <v>2.299289814885975</v>
+        <v>2.469426210525947</v>
       </c>
       <c r="E8">
-        <v>5.594472535217922</v>
+        <v>5.699862041869077</v>
       </c>
       <c r="F8">
-        <v>38.73531758035546</v>
+        <v>35.75526036062598</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3.142054642799835</v>
+        <v>2.94899211660203</v>
       </c>
       <c r="I8">
-        <v>3.721170227329652</v>
+        <v>3.499070797330666</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>24.69525125607934</v>
+        <v>22.3310931710143</v>
       </c>
       <c r="L8">
-        <v>5.537816023029488</v>
+        <v>17.80168261328587</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.44074918874513</v>
       </c>
       <c r="N8">
-        <v>8.271620449232822</v>
+        <v>5.47921541884839</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.82253986437964</v>
+        <v>8.550479403684042</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.33040785017249</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.78562460826705</v>
+        <v>28.12615025720914</v>
       </c>
       <c r="C9">
-        <v>19.95212837325582</v>
+        <v>20.57269017342571</v>
       </c>
       <c r="D9">
-        <v>2.510016119386075</v>
+        <v>2.633137551944237</v>
       </c>
       <c r="E9">
-        <v>6.013275105055817</v>
+        <v>6.083136478998264</v>
       </c>
       <c r="F9">
-        <v>42.13191854580497</v>
+        <v>38.51247351680328</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.339683141665577</v>
+        <v>2.222407822231984</v>
       </c>
       <c r="I9">
-        <v>3.056286822996805</v>
+        <v>2.919863587780358</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>26.14398510282058</v>
+        <v>23.28680889468102</v>
       </c>
       <c r="L9">
-        <v>5.765977949097374</v>
+        <v>18.1842499332888</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.53779681764707</v>
       </c>
       <c r="N9">
-        <v>9.020977100719868</v>
+        <v>5.684140927406283</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>13.46556716624626</v>
+        <v>9.313529664081594</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.93242910876817</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.18559692038475</v>
+        <v>30.35368741852632</v>
       </c>
       <c r="C10">
-        <v>21.80499877209922</v>
+        <v>22.48543346667246</v>
       </c>
       <c r="D10">
-        <v>2.667321349114868</v>
+        <v>2.756667850803479</v>
       </c>
       <c r="E10">
-        <v>6.30015626503841</v>
+        <v>6.344113435073775</v>
       </c>
       <c r="F10">
-        <v>44.23160514018043</v>
+        <v>40.20579905025463</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.814171923054151</v>
+        <v>1.750483338353883</v>
       </c>
       <c r="I10">
-        <v>2.610697609764643</v>
+        <v>2.536120320226066</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>27.00747445979763</v>
+        <v>23.83193094778911</v>
       </c>
       <c r="L10">
-        <v>5.910342326004986</v>
+        <v>18.3165090696636</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.28931798329259</v>
       </c>
       <c r="N10">
-        <v>9.454192323270981</v>
+        <v>5.817007235228065</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>13.1745408793636</v>
+        <v>9.754761903394652</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.6295176123573</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.32746142793312</v>
+        <v>30.55023280385353</v>
       </c>
       <c r="C11">
-        <v>22.27105771946056</v>
+        <v>22.92961118572471</v>
       </c>
       <c r="D11">
-        <v>2.784493042438783</v>
+        <v>2.836706615763917</v>
       </c>
       <c r="E11">
-        <v>6.412135316889412</v>
+        <v>6.444629764273273</v>
       </c>
       <c r="F11">
-        <v>42.78071572905166</v>
+        <v>38.87867819768579</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.766353831288865</v>
+        <v>2.731683552877006</v>
       </c>
       <c r="I11">
-        <v>2.526831972922543</v>
+        <v>2.553209777097112</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>25.95913796440225</v>
+        <v>22.90105990744136</v>
       </c>
       <c r="L11">
-        <v>5.886719264298494</v>
+        <v>17.49411553983298</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>16.73175995946117</v>
       </c>
       <c r="N11">
-        <v>8.884854181577518</v>
+        <v>5.831582428805905</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.83963436936658</v>
+        <v>9.169941790233024</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.42502875484688</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.981313145907</v>
+        <v>30.28554805924842</v>
       </c>
       <c r="C12">
-        <v>22.27027458026518</v>
+        <v>22.89855750460126</v>
       </c>
       <c r="D12">
-        <v>2.852280459726496</v>
+        <v>2.879329894426457</v>
       </c>
       <c r="E12">
-        <v>6.551678699569102</v>
+        <v>6.579701333441654</v>
       </c>
       <c r="F12">
-        <v>41.16262445686858</v>
+        <v>37.44673464688049</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.153884174866657</v>
+        <v>4.129220288949665</v>
       </c>
       <c r="I12">
-        <v>2.524758467652855</v>
+        <v>2.557655526547754</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>24.93754616274545</v>
+        <v>22.04295237889649</v>
       </c>
       <c r="L12">
-        <v>5.897124109878133</v>
+        <v>16.81460843982932</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.12462830547649</v>
       </c>
       <c r="N12">
-        <v>8.312590559548219</v>
+        <v>5.874282180870425</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.66248433044876</v>
+        <v>8.582169514569879</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.35122811276086</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.19395367974212</v>
+        <v>29.60982538525545</v>
       </c>
       <c r="C13">
-        <v>21.92147939388546</v>
+        <v>22.50923933301428</v>
       </c>
       <c r="D13">
-        <v>2.88372282216839</v>
+        <v>2.896388245375811</v>
       </c>
       <c r="E13">
-        <v>6.712074201468919</v>
+        <v>6.740803136120397</v>
       </c>
       <c r="F13">
-        <v>39.20874198622781</v>
+        <v>35.7486773231125</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.596634195786689</v>
+        <v>5.573214326394685</v>
       </c>
       <c r="I13">
-        <v>2.602784438747321</v>
+        <v>2.527194967969462</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>23.80561817157043</v>
+        <v>21.12901518411564</v>
       </c>
       <c r="L13">
-        <v>5.92972591516267</v>
+        <v>16.15300948175939</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.39832653844353</v>
       </c>
       <c r="N13">
-        <v>7.700450567365785</v>
+        <v>5.935774556440735</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.58659302781771</v>
+        <v>7.953113197238326</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.36455172634349</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.42572310005489</v>
+        <v>28.93502903926584</v>
       </c>
       <c r="C14">
-        <v>21.5176272641882</v>
+        <v>22.07137822891143</v>
       </c>
       <c r="D14">
-        <v>2.888662536818714</v>
+        <v>2.896951706952809</v>
       </c>
       <c r="E14">
-        <v>6.843194757352496</v>
+        <v>6.874581257021201</v>
       </c>
       <c r="F14">
-        <v>37.66022897834354</v>
+        <v>34.41435042246707</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.621095016239878</v>
+        <v>6.596473780344859</v>
       </c>
       <c r="I14">
-        <v>2.696702654403861</v>
+        <v>2.607155567042159</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>22.95115497585116</v>
+        <v>20.45437124027744</v>
       </c>
       <c r="L14">
-        <v>5.968924893860569</v>
+        <v>15.6875878381178</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.83043235960064</v>
       </c>
       <c r="N14">
-        <v>7.255052040036572</v>
+        <v>5.99274123093539</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.58282916809815</v>
+        <v>7.495057117816089</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.41483248219748</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.13333832168457</v>
+        <v>28.67250369008899</v>
       </c>
       <c r="C15">
-        <v>21.34666891257076</v>
+        <v>21.88956657675682</v>
       </c>
       <c r="D15">
-        <v>2.881201573004237</v>
+        <v>2.891081295928545</v>
       </c>
       <c r="E15">
-        <v>6.865893703152484</v>
+        <v>6.898974118948835</v>
       </c>
       <c r="F15">
-        <v>37.19395727129162</v>
+        <v>34.01674370316231</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.862586660679525</v>
+        <v>6.836766720385191</v>
       </c>
       <c r="I15">
-        <v>2.74218381626181</v>
+        <v>2.647604405996098</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>22.70768746485579</v>
+        <v>20.26757373989144</v>
       </c>
       <c r="L15">
-        <v>5.975346539551859</v>
+        <v>15.56735833229196</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.66068859154233</v>
       </c>
       <c r="N15">
-        <v>7.138297699852661</v>
+        <v>6.003063345360687</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.59803246171407</v>
+        <v>7.37504666055232</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.44131167950853</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.23267314269251</v>
+        <v>27.82981821763545</v>
       </c>
       <c r="C16">
-        <v>20.63398022203147</v>
+        <v>21.15605586351489</v>
       </c>
       <c r="D16">
-        <v>2.807267212218923</v>
+        <v>2.835277784485025</v>
       </c>
       <c r="E16">
-        <v>6.711521914956972</v>
+        <v>6.754637147186454</v>
       </c>
       <c r="F16">
-        <v>36.5797523680363</v>
+        <v>33.53770825011687</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.698112695136659</v>
+        <v>6.662297058704595</v>
       </c>
       <c r="I16">
-        <v>2.921413604456304</v>
+        <v>2.804286224000478</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>22.51698450973432</v>
+        <v>20.17865578436077</v>
       </c>
       <c r="L16">
-        <v>5.903420142044015</v>
+        <v>15.59247916226615</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.46383610624921</v>
       </c>
       <c r="N16">
-        <v>7.058921799610325</v>
+        <v>5.929051162845377</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.73163543419856</v>
+        <v>7.295566636495145</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.55451749648752</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95691445562397</v>
+        <v>27.54707876670754</v>
       </c>
       <c r="C17">
-        <v>20.30295143297537</v>
+        <v>20.82803512181751</v>
       </c>
       <c r="D17">
-        <v>2.747510552742725</v>
+        <v>2.791787301323001</v>
       </c>
       <c r="E17">
-        <v>6.512010438946112</v>
+        <v>6.561833476234441</v>
       </c>
       <c r="F17">
-        <v>36.9540567659578</v>
+        <v>33.89862667551494</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.006480863939546</v>
+        <v>5.961209009447764</v>
       </c>
       <c r="I17">
-        <v>3.010149469876537</v>
+        <v>2.883174012810183</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>22.83047242702784</v>
+        <v>20.472553308123</v>
       </c>
       <c r="L17">
-        <v>5.822136420203887</v>
+        <v>15.8665257721415</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.61627834971722</v>
       </c>
       <c r="N17">
-        <v>7.237740137298595</v>
+        <v>5.83732519500334</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.83392950513025</v>
+        <v>7.481099894331003</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.61525386560684</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.21790652260906</v>
+        <v>27.74323222763826</v>
       </c>
       <c r="C18">
-        <v>20.26435507290418</v>
+        <v>20.81417632570616</v>
       </c>
       <c r="D18">
-        <v>2.694738923990957</v>
+        <v>2.75505009670521</v>
       </c>
       <c r="E18">
-        <v>6.29548939712043</v>
+        <v>6.349894326412914</v>
       </c>
       <c r="F18">
-        <v>38.25869571239291</v>
+        <v>35.05689678774923</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.813963991701565</v>
+        <v>4.757259913921071</v>
       </c>
       <c r="I18">
-        <v>3.017342182451214</v>
+        <v>2.8888419872848</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>23.64391501513033</v>
+        <v>21.15707405679004</v>
       </c>
       <c r="L18">
-        <v>5.751549469432331</v>
+        <v>16.41437322598187</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>15.0987002095976</v>
       </c>
       <c r="N18">
-        <v>7.666966392298072</v>
+        <v>5.745904665347036</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.94146608523448</v>
+        <v>7.923218614015447</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.65235249585328</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.84089239572862</v>
+        <v>28.26370854804497</v>
       </c>
       <c r="C19">
-        <v>20.4796148956634</v>
+        <v>21.06821276114153</v>
       </c>
       <c r="D19">
-        <v>2.646131070719021</v>
+        <v>2.726631583827622</v>
       </c>
       <c r="E19">
-        <v>6.152363317767192</v>
+        <v>6.209041276587316</v>
       </c>
       <c r="F19">
-        <v>40.11041969257795</v>
+        <v>36.67487039940224</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.419956905400335</v>
+        <v>3.347898154202241</v>
       </c>
       <c r="I19">
-        <v>2.975581903037171</v>
+        <v>2.856617538657013</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>24.73593170667616</v>
+        <v>22.05014907911745</v>
       </c>
       <c r="L19">
-        <v>5.736419080968837</v>
+        <v>17.10252157372891</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.76519579186641</v>
       </c>
       <c r="N19">
-        <v>8.279349998403509</v>
+        <v>5.700863710320794</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>13.06590981642134</v>
+        <v>8.551784210692219</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.68681889520978</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.49733501453145</v>
+        <v>29.71542197139467</v>
       </c>
       <c r="C20">
-        <v>21.35398683136763</v>
+        <v>22.01766979148683</v>
       </c>
       <c r="D20">
-        <v>2.620786955690025</v>
+        <v>2.7256353737628</v>
       </c>
       <c r="E20">
-        <v>6.222157643196419</v>
+        <v>6.273208623379757</v>
       </c>
       <c r="F20">
-        <v>43.52560172941841</v>
+        <v>39.61744807995731</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.955625435026885</v>
+        <v>1.877148036309229</v>
       </c>
       <c r="I20">
-        <v>2.761030651523807</v>
+        <v>2.675585674372875</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>26.6619012124454</v>
+        <v>23.58156993615806</v>
       </c>
       <c r="L20">
-        <v>5.867752496483837</v>
+        <v>18.20265047840085</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.00663765339568</v>
       </c>
       <c r="N20">
-        <v>9.346122733163298</v>
+        <v>5.778561235321444</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>13.23130682953321</v>
+        <v>9.644066128688763</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.6993641298713</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.43088256470833</v>
+        <v>31.49473814296987</v>
       </c>
       <c r="C21">
-        <v>22.77701774740371</v>
+        <v>23.49202240526431</v>
       </c>
       <c r="D21">
-        <v>2.733418059124626</v>
+        <v>2.816652185124469</v>
       </c>
       <c r="E21">
-        <v>6.457786136544128</v>
+        <v>6.488737704774468</v>
       </c>
       <c r="F21">
-        <v>45.55419936954019</v>
+        <v>41.28699063162373</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.61584109909615</v>
+        <v>1.650153473716897</v>
       </c>
       <c r="I21">
-        <v>2.609241476009642</v>
+        <v>2.664469860740214</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>27.59179257697343</v>
+        <v>24.22351973022351</v>
       </c>
       <c r="L21">
-        <v>6.000803387128696</v>
+        <v>18.46547434504588</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.76969707041464</v>
       </c>
       <c r="N21">
-        <v>9.805579779697341</v>
+        <v>5.894895857829987</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>13.05110400137395</v>
+        <v>10.11298309214982</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.48539040717994</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.62212867214032</v>
+        <v>32.59256162410865</v>
       </c>
       <c r="C22">
-        <v>23.64518662277645</v>
+        <v>24.38932042234158</v>
       </c>
       <c r="D22">
-        <v>2.812134037521179</v>
+        <v>2.877244310443494</v>
       </c>
       <c r="E22">
-        <v>6.606069298853756</v>
+        <v>6.623672750787926</v>
       </c>
       <c r="F22">
-        <v>46.77810776634577</v>
+        <v>42.29534815202305</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.885809397064417</v>
+        <v>1.892809709706238</v>
       </c>
       <c r="I22">
-        <v>2.823807365785052</v>
+        <v>2.848007602398553</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>28.15710402065468</v>
+        <v>24.61460645578026</v>
       </c>
       <c r="L22">
-        <v>6.080840058902163</v>
+        <v>18.60970579886592</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.25553118874099</v>
       </c>
       <c r="N22">
-        <v>10.05082629007774</v>
+        <v>5.966180479967887</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.92779367872328</v>
+        <v>10.36336085317407</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.34357094249684</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.0157992559105</v>
+        <v>32.03432043628027</v>
       </c>
       <c r="C23">
-        <v>23.17559625416594</v>
+        <v>23.90488482691026</v>
       </c>
       <c r="D23">
-        <v>2.772153942616556</v>
+        <v>2.844294282534303</v>
       </c>
       <c r="E23">
-        <v>6.527923476686183</v>
+        <v>6.552555185847386</v>
       </c>
       <c r="F23">
-        <v>46.18084508462294</v>
+        <v>41.80860245826707</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.744146439700175</v>
+        <v>1.765495494238394</v>
       </c>
       <c r="I23">
-        <v>2.705415586931065</v>
+        <v>2.744545626065503</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>27.89728649245623</v>
+        <v>24.4434798296367</v>
       </c>
       <c r="L23">
-        <v>6.03985702477372</v>
+        <v>18.56096297855628</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.0246295213255</v>
       </c>
       <c r="N23">
-        <v>9.917549003902099</v>
+        <v>5.929505506531187</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>13.00071044659033</v>
+        <v>10.22751366597318</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.4225781800845</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.58631095688771</v>
+        <v>29.79230456949405</v>
       </c>
       <c r="C24">
-        <v>21.34831031327986</v>
+        <v>22.01634677156618</v>
       </c>
       <c r="D24">
-        <v>2.617553658574858</v>
+        <v>2.721294459967859</v>
       </c>
       <c r="E24">
-        <v>6.228670215033341</v>
+        <v>6.279846360004218</v>
       </c>
       <c r="F24">
-        <v>43.79287193855127</v>
+        <v>39.85650240833779</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.932959916128135</v>
+        <v>1.855231955355812</v>
       </c>
       <c r="I24">
-        <v>2.736890182955285</v>
+        <v>2.648722136936732</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>26.83983846206377</v>
+        <v>23.73426301941768</v>
       </c>
       <c r="L24">
-        <v>5.880088961678164</v>
+        <v>18.32156526035191</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.11879439690619</v>
       </c>
       <c r="N24">
-        <v>9.405399078909371</v>
+        <v>5.786648179545663</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>13.26514853285535</v>
+        <v>9.705135405860329</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.716321079016</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.76668166269269</v>
+        <v>27.18071439796646</v>
       </c>
       <c r="C25">
-        <v>19.23817030040604</v>
+        <v>19.83163438709333</v>
       </c>
       <c r="D25">
-        <v>2.45020819604278</v>
+        <v>2.589678787950631</v>
       </c>
       <c r="E25">
-        <v>5.900345730894344</v>
+        <v>5.979924296680961</v>
       </c>
       <c r="F25">
-        <v>41.13957790590405</v>
+        <v>37.69546227172474</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.55534359457332</v>
+        <v>2.417380267874875</v>
       </c>
       <c r="I25">
-        <v>3.249333452432418</v>
+        <v>3.092566549946605</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>25.68786738233182</v>
+        <v>22.96891739716988</v>
       </c>
       <c r="L25">
-        <v>5.702976767950138</v>
+        <v>18.04049517276089</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.18410156443423</v>
       </c>
       <c r="N25">
-        <v>8.828141494558093</v>
+        <v>5.627891523681019</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>13.55091345577946</v>
+        <v>9.116644826650045</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.03382543152566</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
